--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC6F75-A8D5-4382-9B28-C2524076394F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D9353-1F56-47CE-A3F7-4C5DDBC178D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{414B5265-9344-4A73-9B4E-1EB725646290}"/>
   </bookViews>
@@ -846,27 +846,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1145,6 +1125,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1170,20 +1160,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L154" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L154" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="D2:L154" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Frutos de pepita"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:L154">
     <sortCondition ref="H3:H154"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,7 +1486,7 @@
   <dimension ref="A2:S154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,7 +1533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f>+D3&amp;"-"&amp;F3</f>
+        <f t="shared" ref="G3:G34" si="0">+D3&amp;"-"&amp;F3</f>
         <v>01-01</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1567,14 +1564,14 @@
         <v>204</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>+G3&amp;"-"&amp;I3</f>
+        <f t="shared" ref="K3:K34" si="1">+G3&amp;"-"&amp;I3</f>
         <v>01-01-00</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f>+D4&amp;"-"&amp;F4</f>
+        <f t="shared" si="0"/>
         <v>05-01</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1605,14 +1602,14 @@
         <v>119</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f>+G4&amp;"-"&amp;I4</f>
+        <f t="shared" si="1"/>
         <v>05-01-00</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f>+D5&amp;"-"&amp;F5</f>
+        <f t="shared" si="0"/>
         <v>05-01</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1643,14 +1640,14 @@
         <v>119</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>+G5&amp;"-"&amp;I5</f>
+        <f t="shared" si="1"/>
         <v>05-01-00</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1665,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f>+D6&amp;"-"&amp;F6</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1681,7 +1678,7 @@
         <v>102</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>+G6&amp;"-"&amp;I6</f>
+        <f t="shared" si="1"/>
         <v>01-02-00</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1691,7 +1688,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>92</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f>+D7&amp;"-"&amp;F7</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1722,7 +1719,7 @@
         <v>110</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>+G7&amp;"-"&amp;I7</f>
+        <f t="shared" si="1"/>
         <v>01-02-01</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1732,7 +1729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>92</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f>+D8&amp;"-"&amp;F8</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1763,14 +1760,14 @@
         <v>78</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>+G8&amp;"-"&amp;I8</f>
+        <f t="shared" si="1"/>
         <v>01-02-02</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>92</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f>+D9&amp;"-"&amp;F9</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1801,14 +1798,14 @@
         <v>78</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>+G9&amp;"-"&amp;I9</f>
+        <f t="shared" si="1"/>
         <v>01-02-02</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>92</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f>+D10&amp;"-"&amp;F10</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1839,14 +1836,14 @@
         <v>102</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>+G10&amp;"-"&amp;I10</f>
+        <f t="shared" si="1"/>
         <v>01-02-00</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>92</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f>+D11&amp;"-"&amp;F11</f>
+        <f t="shared" si="0"/>
         <v>01-02</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1877,14 +1874,14 @@
         <v>102</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>+G11&amp;"-"&amp;I11</f>
+        <f t="shared" si="1"/>
         <v>01-02-00</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>92</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>+D12&amp;"-"&amp;F12</f>
+        <f t="shared" si="0"/>
         <v>05-02</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1915,14 +1912,14 @@
         <v>129</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>+G12&amp;"-"&amp;I12</f>
+        <f t="shared" si="1"/>
         <v>05-02-00</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1940,7 +1937,7 @@
         <v>92</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>+D13&amp;"-"&amp;F13</f>
+        <f t="shared" si="0"/>
         <v>05-02</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1953,14 +1950,14 @@
         <v>129</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>+G13&amp;"-"&amp;I13</f>
+        <f t="shared" si="1"/>
         <v>05-02-00</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>+D14&amp;"-"&amp;F14</f>
+        <f t="shared" si="0"/>
         <v>06-01</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1991,14 +1988,14 @@
         <v>83</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>+G14&amp;"-"&amp;I14</f>
+        <f t="shared" si="1"/>
         <v>06-01-00</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="D15" s="4" t="str">
         <f>+VLOOKUP(E15,Categoría[[Categoría]:[Codigo]],2,0)</f>
@@ -2011,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f>+D15&amp;"-"&amp;F15</f>
+        <f t="shared" si="0"/>
         <v>01-03</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -2024,14 +2021,14 @@
         <v>170</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>+G15&amp;"-"&amp;I15</f>
+        <f t="shared" si="1"/>
         <v>01-03-00</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="str">
         <f>+VLOOKUP(E16,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2043,7 +2040,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>+D16&amp;"-"&amp;F16</f>
+        <f t="shared" si="0"/>
         <v>06-02</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2056,14 +2053,14 @@
         <v>171</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>+G16&amp;"-"&amp;I16</f>
+        <f t="shared" si="1"/>
         <v>06-02-00</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="str">
         <f>+VLOOKUP(E17,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2075,7 +2072,7 @@
         <v>93</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>+D17&amp;"-"&amp;F17</f>
+        <f t="shared" si="0"/>
         <v>05-03</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -2088,14 +2085,14 @@
         <v>133</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>+G17&amp;"-"&amp;I17</f>
+        <f t="shared" si="1"/>
         <v>05-03-00</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="str">
         <f>+VLOOKUP(E18,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2107,7 +2104,7 @@
         <v>93</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>+D18&amp;"-"&amp;F18</f>
+        <f t="shared" si="0"/>
         <v>05-03</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2120,14 +2117,14 @@
         <v>133</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>+G18&amp;"-"&amp;I18</f>
+        <f t="shared" si="1"/>
         <v>05-03-00</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="str">
         <f>+VLOOKUP(E19,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2139,7 +2136,7 @@
         <v>93</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>+D19&amp;"-"&amp;F19</f>
+        <f t="shared" si="0"/>
         <v>05-03</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -2152,14 +2149,14 @@
         <v>133</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>+G19&amp;"-"&amp;I19</f>
+        <f t="shared" si="1"/>
         <v>05-03-00</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D20" s="4" t="str">
         <f>+VLOOKUP(E20,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2171,7 +2168,7 @@
         <v>165</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>+D20&amp;"-"&amp;F20</f>
+        <f t="shared" si="0"/>
         <v>03-10</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -2184,14 +2181,14 @@
         <v>117</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>+G20&amp;"-"&amp;I20</f>
+        <f t="shared" si="1"/>
         <v>03-10-00</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="str">
         <f>+VLOOKUP(E21,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2203,7 +2200,7 @@
         <v>165</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>+D21&amp;"-"&amp;F21</f>
+        <f t="shared" si="0"/>
         <v>03-10</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2216,14 +2213,14 @@
         <v>117</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>+G21&amp;"-"&amp;I21</f>
+        <f t="shared" si="1"/>
         <v>03-10-00</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D22" s="4" t="str">
         <f>+VLOOKUP(E22,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2235,7 +2232,7 @@
         <v>165</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>+D22&amp;"-"&amp;F22</f>
+        <f t="shared" si="0"/>
         <v>03-10</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -2248,14 +2245,14 @@
         <v>117</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>+G22&amp;"-"&amp;I22</f>
+        <f t="shared" si="1"/>
         <v>03-10-00</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="str">
         <f>+VLOOKUP(E23,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2267,7 +2264,7 @@
         <v>93</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f>+D23&amp;"-"&amp;F23</f>
+        <f t="shared" si="0"/>
         <v>06-03</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2280,14 +2277,14 @@
         <v>112</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>+G23&amp;"-"&amp;I23</f>
+        <f t="shared" si="1"/>
         <v>06-03-00</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="str">
         <f>+VLOOKUP(E24,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2299,7 +2296,7 @@
         <v>93</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>+D24&amp;"-"&amp;F24</f>
+        <f t="shared" si="0"/>
         <v>06-03</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2312,14 +2309,14 @@
         <v>112</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>+G24&amp;"-"&amp;I24</f>
+        <f t="shared" si="1"/>
         <v>06-03-00</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="str">
         <f>+VLOOKUP(E25,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2331,7 +2328,7 @@
         <v>175</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>+D25&amp;"-"&amp;F25</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2344,14 +2341,14 @@
         <v>26</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>+G25&amp;"-"&amp;I25</f>
+        <f t="shared" si="1"/>
         <v>03-11-00</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="str">
         <f>+VLOOKUP(E26,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2363,7 +2360,7 @@
         <v>175</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>+D26&amp;"-"&amp;F26</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2376,14 +2373,14 @@
         <v>172</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>+G26&amp;"-"&amp;I26</f>
+        <f t="shared" si="1"/>
         <v>03-11-01</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="str">
         <f>+VLOOKUP(E27,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2395,7 +2392,7 @@
         <v>175</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f>+D27&amp;"-"&amp;F27</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2408,14 +2405,14 @@
         <v>26</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>+G27&amp;"-"&amp;I27</f>
+        <f t="shared" si="1"/>
         <v>03-11-00</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(E28,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2427,7 +2424,7 @@
         <v>175</v>
       </c>
       <c r="G28" s="6" t="str">
-        <f>+D28&amp;"-"&amp;F28</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2440,14 +2437,14 @@
         <v>172</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>+G28&amp;"-"&amp;I28</f>
+        <f t="shared" si="1"/>
         <v>03-11-01</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="str">
         <f>+VLOOKUP(E29,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2459,7 +2456,7 @@
         <v>175</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f>+D29&amp;"-"&amp;F29</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -2472,14 +2469,14 @@
         <v>173</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>+G29&amp;"-"&amp;I29</f>
+        <f t="shared" si="1"/>
         <v>03-11-02</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(E30,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2491,7 +2488,7 @@
         <v>175</v>
       </c>
       <c r="G30" s="6" t="str">
-        <f>+D30&amp;"-"&amp;F30</f>
+        <f t="shared" si="0"/>
         <v>03-11</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -2504,14 +2501,14 @@
         <v>173</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>+G30&amp;"-"&amp;I30</f>
+        <f t="shared" si="1"/>
         <v>03-11-02</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(E31,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2523,7 +2520,7 @@
         <v>91</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f>+D31&amp;"-"&amp;F31</f>
+        <f t="shared" si="0"/>
         <v>07-01</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -2536,14 +2533,14 @@
         <v>17</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>+G31&amp;"-"&amp;I31</f>
+        <f t="shared" si="1"/>
         <v>07-01-00</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(E32,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2555,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="G32" s="6" t="str">
-        <f>+D32&amp;"-"&amp;F32</f>
+        <f t="shared" si="0"/>
         <v>07-01</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -2568,14 +2565,14 @@
         <v>17</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>+G32&amp;"-"&amp;I32</f>
+        <f t="shared" si="1"/>
         <v>07-01-00</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D33" s="8" t="s">
         <v>91</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>94</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>+D33&amp;"-"&amp;F33</f>
+        <f t="shared" si="0"/>
         <v>01-04</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -2599,14 +2596,14 @@
         <v>174</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f>+G33&amp;"-"&amp;I33</f>
+        <f t="shared" si="1"/>
         <v>01-04-00</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D34" s="4" t="str">
         <f>+VLOOKUP(E34,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2618,7 +2615,7 @@
         <v>94</v>
       </c>
       <c r="G34" s="6" t="str">
-        <f>+D34&amp;"-"&amp;F34</f>
+        <f t="shared" si="0"/>
         <v>01-04</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -2631,14 +2628,14 @@
         <v>174</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>+G34&amp;"-"&amp;I34</f>
+        <f t="shared" si="1"/>
         <v>01-04-00</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(E35,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2650,7 +2647,7 @@
         <v>176</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f>+D35&amp;"-"&amp;F35</f>
+        <f t="shared" ref="G35:G66" si="2">+D35&amp;"-"&amp;F35</f>
         <v>03-12</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2663,14 +2660,14 @@
         <v>24</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f>+G35&amp;"-"&amp;I35</f>
+        <f t="shared" ref="K35:K66" si="3">+G35&amp;"-"&amp;I35</f>
         <v>03-12-00</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="str">
         <f>+VLOOKUP(E36,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2682,7 +2679,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f>+D36&amp;"-"&amp;F36</f>
+        <f t="shared" si="2"/>
         <v>06-05</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -2695,14 +2692,14 @@
         <v>181</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f>+G36&amp;"-"&amp;I36</f>
+        <f t="shared" si="3"/>
         <v>06-05-00</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(E37,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2714,7 +2711,7 @@
         <v>230</v>
       </c>
       <c r="G37" s="6" t="str">
-        <f>+D37&amp;"-"&amp;F37</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2727,14 +2724,14 @@
         <v>182</v>
       </c>
       <c r="K37" s="3" t="str">
-        <f>+G37&amp;"-"&amp;I37</f>
+        <f t="shared" si="3"/>
         <v>03-13-00</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(E38,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2746,7 +2743,7 @@
         <v>230</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f>+D38&amp;"-"&amp;F38</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2759,14 +2756,14 @@
         <v>183</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f>+G38&amp;"-"&amp;I38</f>
+        <f t="shared" si="3"/>
         <v>03-13-01</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(E39,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2778,7 +2775,7 @@
         <v>230</v>
       </c>
       <c r="G39" s="6" t="str">
-        <f>+D39&amp;"-"&amp;F39</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -2791,14 +2788,14 @@
         <v>18</v>
       </c>
       <c r="K39" s="3" t="str">
-        <f>+G39&amp;"-"&amp;I39</f>
+        <f t="shared" si="3"/>
         <v>03-13-02</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(E40,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2810,7 +2807,7 @@
         <v>230</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f>+D40&amp;"-"&amp;F40</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -2823,14 +2820,14 @@
         <v>183</v>
       </c>
       <c r="K40" s="3" t="str">
-        <f>+G40&amp;"-"&amp;I40</f>
+        <f t="shared" si="3"/>
         <v>03-13-01</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(E41,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2842,7 +2839,7 @@
         <v>230</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f>+D41&amp;"-"&amp;F41</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -2855,14 +2852,14 @@
         <v>182</v>
       </c>
       <c r="K41" s="3" t="str">
-        <f>+G41&amp;"-"&amp;I41</f>
+        <f t="shared" si="3"/>
         <v>03-13-00</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(E42,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2874,7 +2871,7 @@
         <v>230</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f>+D42&amp;"-"&amp;F42</f>
+        <f t="shared" si="2"/>
         <v>03-13</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -2887,14 +2884,14 @@
         <v>18</v>
       </c>
       <c r="K42" s="3" t="str">
-        <f>+G42&amp;"-"&amp;I42</f>
+        <f t="shared" si="3"/>
         <v>03-13-02</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D43" s="4" t="str">
         <f>+VLOOKUP(E43,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2906,7 +2903,7 @@
         <v>95</v>
       </c>
       <c r="G43" s="6" t="str">
-        <f>+D43&amp;"-"&amp;F43</f>
+        <f t="shared" si="2"/>
         <v>01-05</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -2919,14 +2916,14 @@
         <v>85</v>
       </c>
       <c r="K43" s="3" t="str">
-        <f>+G43&amp;"-"&amp;I43</f>
+        <f t="shared" si="3"/>
         <v>01-05-00</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(E44,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2938,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f>+D44&amp;"-"&amp;F44</f>
+        <f t="shared" si="2"/>
         <v>06-06</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -2951,14 +2948,14 @@
         <v>184</v>
       </c>
       <c r="K44" s="3" t="str">
-        <f>+G44&amp;"-"&amp;I44</f>
+        <f t="shared" si="3"/>
         <v>06-06-00</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D45" s="4" t="str">
         <f>+VLOOKUP(E45,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2970,7 +2967,7 @@
         <v>96</v>
       </c>
       <c r="G45" s="6" t="str">
-        <f>+D45&amp;"-"&amp;F45</f>
+        <f t="shared" si="2"/>
         <v>01-06</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -2983,14 +2980,14 @@
         <v>105</v>
       </c>
       <c r="K45" s="3" t="str">
-        <f>+G45&amp;"-"&amp;I45</f>
+        <f t="shared" si="3"/>
         <v>01-06-00</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D46" s="4" t="str">
         <f>+VLOOKUP(E46,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3002,7 +2999,7 @@
         <v>97</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f>+D46&amp;"-"&amp;F46</f>
+        <f t="shared" si="2"/>
         <v>01-07</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -3015,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="K46" s="3" t="str">
-        <f>+G46&amp;"-"&amp;I46</f>
+        <f t="shared" si="3"/>
         <v>01-07-00</v>
       </c>
       <c r="L46" s="3" t="s">
@@ -3034,7 +3031,7 @@
         <v>96</v>
       </c>
       <c r="G47" s="6" t="str">
-        <f>+D47&amp;"-"&amp;F47</f>
+        <f t="shared" si="2"/>
         <v>04-06</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -3047,7 +3044,7 @@
         <v>186</v>
       </c>
       <c r="K47" s="3" t="str">
-        <f>+G47&amp;"-"&amp;I47</f>
+        <f t="shared" si="3"/>
         <v>04-06-00</v>
       </c>
       <c r="L47" s="3" t="s">
@@ -3066,7 +3063,7 @@
         <v>96</v>
       </c>
       <c r="G48" s="6" t="str">
-        <f>+D48&amp;"-"&amp;F48</f>
+        <f t="shared" si="2"/>
         <v>04-06</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -3079,14 +3076,14 @@
         <v>186</v>
       </c>
       <c r="K48" s="3" t="str">
-        <f>+G48&amp;"-"&amp;I48</f>
+        <f t="shared" si="3"/>
         <v>04-06-00</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(E49,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3098,7 +3095,7 @@
         <v>97</v>
       </c>
       <c r="G49" s="6" t="str">
-        <f>+D49&amp;"-"&amp;F49</f>
+        <f t="shared" si="2"/>
         <v>06-07</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -3111,14 +3108,14 @@
         <v>185</v>
       </c>
       <c r="K49" s="3" t="str">
-        <f>+G49&amp;"-"&amp;I49</f>
+        <f t="shared" si="3"/>
         <v>06-07-00</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D50" s="4" t="str">
         <f>+VLOOKUP(E50,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3130,7 +3127,7 @@
         <v>93</v>
       </c>
       <c r="G50" s="6" t="str">
-        <f>+D50&amp;"-"&amp;F50</f>
+        <f t="shared" si="2"/>
         <v>07-03</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -3143,14 +3140,14 @@
         <v>187</v>
       </c>
       <c r="K50" s="3" t="str">
-        <f>+G50&amp;"-"&amp;I50</f>
+        <f t="shared" si="3"/>
         <v>07-03-00</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D51" s="4" t="str">
         <f>+VLOOKUP(E51,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3162,7 +3159,7 @@
         <v>231</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f>+D51&amp;"-"&amp;F51</f>
+        <f t="shared" si="2"/>
         <v>03-14</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -3175,14 +3172,14 @@
         <v>239</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f>+G51&amp;"-"&amp;I51</f>
+        <f t="shared" si="3"/>
         <v>03-14-00</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(E52,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3194,7 +3191,7 @@
         <v>231</v>
       </c>
       <c r="G52" s="6" t="str">
-        <f>+D52&amp;"-"&amp;F52</f>
+        <f t="shared" si="2"/>
         <v>03-14</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -3207,14 +3204,14 @@
         <v>239</v>
       </c>
       <c r="K52" s="3" t="str">
-        <f>+G52&amp;"-"&amp;I52</f>
+        <f t="shared" si="3"/>
         <v>03-14-00</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(E53,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3226,7 +3223,7 @@
         <v>164</v>
       </c>
       <c r="G53" s="6" t="str">
-        <f>+D53&amp;"-"&amp;F53</f>
+        <f t="shared" si="2"/>
         <v>01-09</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -3239,14 +3236,14 @@
         <v>188</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f>+G53&amp;"-"&amp;I53</f>
+        <f t="shared" si="3"/>
         <v>01-09-00</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D54" s="4" t="str">
         <f>+VLOOKUP(E54,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3258,7 +3255,7 @@
         <v>165</v>
       </c>
       <c r="G54" s="6" t="str">
-        <f>+D54&amp;"-"&amp;F54</f>
+        <f t="shared" si="2"/>
         <v>01-10</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -3271,14 +3268,14 @@
         <v>103</v>
       </c>
       <c r="K54" s="3" t="str">
-        <f>+G54&amp;"-"&amp;I54</f>
+        <f t="shared" si="3"/>
         <v>01-10-00</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D55" s="4" t="str">
         <f>+VLOOKUP(E55,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3290,7 +3287,7 @@
         <v>165</v>
       </c>
       <c r="G55" s="6" t="str">
-        <f>+D55&amp;"-"&amp;F55</f>
+        <f t="shared" si="2"/>
         <v>01-10</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -3303,14 +3300,14 @@
         <v>103</v>
       </c>
       <c r="K55" s="3" t="str">
-        <f>+G55&amp;"-"&amp;I55</f>
+        <f t="shared" si="3"/>
         <v>01-10-00</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D56" s="4" t="str">
         <f>+VLOOKUP(E56,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3322,7 +3319,7 @@
         <v>98</v>
       </c>
       <c r="G56" s="6" t="str">
-        <f>+D56&amp;"-"&amp;F56</f>
+        <f t="shared" si="2"/>
         <v>06-08</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -3335,14 +3332,14 @@
         <v>189</v>
       </c>
       <c r="K56" s="3" t="str">
-        <f>+G56&amp;"-"&amp;I56</f>
+        <f t="shared" si="3"/>
         <v>06-08-00</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D57" s="4" t="str">
         <f>+VLOOKUP(E57,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3354,7 +3351,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="6" t="str">
-        <f>+D57&amp;"-"&amp;F57</f>
+        <f t="shared" si="2"/>
         <v>01-08</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -3367,14 +3364,14 @@
         <v>86</v>
       </c>
       <c r="K57" s="3" t="str">
-        <f>+G57&amp;"-"&amp;I57</f>
+        <f t="shared" si="3"/>
         <v>01-08-00</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D58" s="4" t="str">
         <f>+VLOOKUP(E58,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3386,7 +3383,7 @@
         <v>98</v>
       </c>
       <c r="G58" s="6" t="str">
-        <f>+D58&amp;"-"&amp;F58</f>
+        <f t="shared" si="2"/>
         <v>01-08</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -3399,14 +3396,14 @@
         <v>86</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f>+G58&amp;"-"&amp;I58</f>
+        <f t="shared" si="3"/>
         <v>01-08-00</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D59" s="4" t="str">
         <f>+VLOOKUP(E59,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3418,7 +3415,7 @@
         <v>98</v>
       </c>
       <c r="G59" s="6" t="str">
-        <f>+D59&amp;"-"&amp;F59</f>
+        <f t="shared" si="2"/>
         <v>01-08</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -3431,14 +3428,14 @@
         <v>16</v>
       </c>
       <c r="K59" s="3" t="str">
-        <f>+G59&amp;"-"&amp;I59</f>
+        <f t="shared" si="3"/>
         <v>01-08-01</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D60" s="4" t="str">
         <f>+VLOOKUP(E60,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3450,7 +3447,7 @@
         <v>98</v>
       </c>
       <c r="G60" s="6" t="str">
-        <f>+D60&amp;"-"&amp;F60</f>
+        <f t="shared" si="2"/>
         <v>01-08</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -3463,14 +3460,14 @@
         <v>192</v>
       </c>
       <c r="K60" s="3" t="str">
-        <f>+G60&amp;"-"&amp;I60</f>
+        <f t="shared" si="3"/>
         <v>01-08-02</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D61" s="4" t="str">
         <f>+VLOOKUP(E61,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3482,7 +3479,7 @@
         <v>98</v>
       </c>
       <c r="G61" s="6" t="str">
-        <f>+D61&amp;"-"&amp;F61</f>
+        <f t="shared" si="2"/>
         <v>01-08</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -3495,14 +3492,14 @@
         <v>192</v>
       </c>
       <c r="K61" s="3" t="str">
-        <f>+G61&amp;"-"&amp;I61</f>
+        <f t="shared" si="3"/>
         <v>01-08-02</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D62" s="4" t="str">
         <f>+VLOOKUP(E62,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3514,7 +3511,7 @@
         <v>92</v>
       </c>
       <c r="G62" s="6" t="str">
-        <f>+D62&amp;"-"&amp;F62</f>
+        <f t="shared" si="2"/>
         <v>02-02</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -3527,14 +3524,14 @@
         <v>190</v>
       </c>
       <c r="K62" s="3" t="str">
-        <f>+G62&amp;"-"&amp;I62</f>
+        <f t="shared" si="3"/>
         <v>02-02-01</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D63" s="4" t="str">
         <f>+VLOOKUP(E63,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3546,7 +3543,7 @@
         <v>93</v>
       </c>
       <c r="G63" s="6" t="str">
-        <f>+D63&amp;"-"&amp;F63</f>
+        <f t="shared" si="2"/>
         <v>02-03</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -3559,14 +3556,14 @@
         <v>191</v>
       </c>
       <c r="K63" s="3" t="str">
-        <f>+G63&amp;"-"&amp;I63</f>
+        <f t="shared" si="3"/>
         <v>02-03-02</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D64" s="4" t="str">
         <f>+VLOOKUP(E64,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3578,7 +3575,7 @@
         <v>94</v>
       </c>
       <c r="G64" s="6" t="str">
-        <f>+D64&amp;"-"&amp;F64</f>
+        <f t="shared" si="2"/>
         <v>02-04</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -3591,14 +3588,14 @@
         <v>113</v>
       </c>
       <c r="K64" s="3" t="str">
-        <f>+G64&amp;"-"&amp;I64</f>
+        <f t="shared" si="3"/>
         <v>02-04-03</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D65" s="4" t="str">
         <f>+VLOOKUP(E65,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3610,7 +3607,7 @@
         <v>94</v>
       </c>
       <c r="G65" s="6" t="str">
-        <f>+D65&amp;"-"&amp;F65</f>
+        <f t="shared" si="2"/>
         <v>02-04</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -3623,14 +3620,14 @@
         <v>113</v>
       </c>
       <c r="K65" s="3" t="str">
-        <f>+G65&amp;"-"&amp;I65</f>
+        <f t="shared" si="3"/>
         <v>02-04-03</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D66" s="4" t="str">
         <f>+VLOOKUP(E66,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3642,7 +3639,7 @@
         <v>94</v>
       </c>
       <c r="G66" s="6" t="str">
-        <f>+D66&amp;"-"&amp;F66</f>
+        <f t="shared" si="2"/>
         <v>02-04</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -3655,14 +3652,14 @@
         <v>113</v>
       </c>
       <c r="K66" s="3" t="str">
-        <f>+G66&amp;"-"&amp;I66</f>
+        <f t="shared" si="3"/>
         <v>02-04-03</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D67" s="4" t="str">
         <f>+VLOOKUP(E67,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3674,7 +3671,7 @@
         <v>164</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f>+D67&amp;"-"&amp;F67</f>
+        <f t="shared" ref="G67:G98" si="4">+D67&amp;"-"&amp;F67</f>
         <v>06-09</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -3687,14 +3684,14 @@
         <v>199</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f>+G67&amp;"-"&amp;I67</f>
+        <f t="shared" ref="K67:K98" si="5">+G67&amp;"-"&amp;I67</f>
         <v>06-09-00</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D68" s="4" t="str">
         <f>+VLOOKUP(E68,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3706,7 +3703,7 @@
         <v>164</v>
       </c>
       <c r="G68" s="6" t="str">
-        <f>+D68&amp;"-"&amp;F68</f>
+        <f t="shared" si="4"/>
         <v>06-09</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -3719,14 +3716,14 @@
         <v>199</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f>+G68&amp;"-"&amp;I68</f>
+        <f t="shared" si="5"/>
         <v>06-09-00</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D69" s="4" t="str">
         <f>+VLOOKUP(E69,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3738,7 +3735,7 @@
         <v>164</v>
       </c>
       <c r="G69" s="6" t="str">
-        <f>+D69&amp;"-"&amp;F69</f>
+        <f t="shared" si="4"/>
         <v>06-09</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -3751,14 +3748,14 @@
         <v>199</v>
       </c>
       <c r="K69" s="3" t="str">
-        <f>+G69&amp;"-"&amp;I69</f>
+        <f t="shared" si="5"/>
         <v>06-09-00</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D70" s="4" t="str">
         <f>+VLOOKUP(E70,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3770,7 +3767,7 @@
         <v>95</v>
       </c>
       <c r="G70" s="6" t="str">
-        <f>+D70&amp;"-"&amp;F70</f>
+        <f t="shared" si="4"/>
         <v>02-05</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -3783,14 +3780,14 @@
         <v>114</v>
       </c>
       <c r="K70" s="3" t="str">
-        <f>+G70&amp;"-"&amp;I70</f>
+        <f t="shared" si="5"/>
         <v>02-05-04</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D71" s="4" t="str">
         <f>+VLOOKUP(E71,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3802,7 +3799,7 @@
         <v>95</v>
       </c>
       <c r="G71" s="6" t="str">
-        <f>+D71&amp;"-"&amp;F71</f>
+        <f t="shared" si="4"/>
         <v>02-05</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -3815,14 +3812,14 @@
         <v>114</v>
       </c>
       <c r="K71" s="3" t="str">
-        <f>+G71&amp;"-"&amp;I71</f>
+        <f t="shared" si="5"/>
         <v>02-05-04</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D72" s="4" t="str">
         <f>+VLOOKUP(E72,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3834,7 +3831,7 @@
         <v>95</v>
       </c>
       <c r="G72" s="6" t="str">
-        <f>+D72&amp;"-"&amp;F72</f>
+        <f t="shared" si="4"/>
         <v>02-05</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -3847,14 +3844,14 @@
         <v>114</v>
       </c>
       <c r="K72" s="3" t="str">
-        <f>+G72&amp;"-"&amp;I72</f>
+        <f t="shared" si="5"/>
         <v>02-05-04</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D73" s="4" t="str">
         <f>+VLOOKUP(E73,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3866,7 +3863,7 @@
         <v>94</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f>+D73&amp;"-"&amp;F73</f>
+        <f t="shared" si="4"/>
         <v>07-04</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -3879,14 +3876,14 @@
         <v>12</v>
       </c>
       <c r="K73" s="3" t="str">
-        <f>+G73&amp;"-"&amp;I73</f>
+        <f t="shared" si="5"/>
         <v>07-04-00</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D74" s="4" t="str">
         <f>+VLOOKUP(E74,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3898,7 +3895,7 @@
         <v>94</v>
       </c>
       <c r="G74" s="6" t="str">
-        <f>+D74&amp;"-"&amp;F74</f>
+        <f t="shared" si="4"/>
         <v>07-04</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -3911,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="K74" s="3" t="str">
-        <f>+G74&amp;"-"&amp;I74</f>
+        <f t="shared" si="5"/>
         <v>07-04-00</v>
       </c>
       <c r="L74" s="3" t="s">
@@ -3930,7 +3927,7 @@
         <v>91</v>
       </c>
       <c r="G75" s="6" t="str">
-        <f>+D75&amp;"-"&amp;F75</f>
+        <f t="shared" si="4"/>
         <v>04-01</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -3943,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="K75" s="3" t="str">
-        <f>+G75&amp;"-"&amp;I75</f>
+        <f t="shared" si="5"/>
         <v>04-01-00</v>
       </c>
       <c r="L75" s="3" t="s">
@@ -3962,7 +3959,7 @@
         <v>91</v>
       </c>
       <c r="G76" s="6" t="str">
-        <f>+D76&amp;"-"&amp;F76</f>
+        <f t="shared" si="4"/>
         <v>04-01</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -3975,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="3" t="str">
-        <f>+G76&amp;"-"&amp;I76</f>
+        <f t="shared" si="5"/>
         <v>04-01-00</v>
       </c>
       <c r="L76" s="3" t="s">
@@ -3994,7 +3991,7 @@
         <v>91</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f>+D77&amp;"-"&amp;F77</f>
+        <f t="shared" si="4"/>
         <v>04-01</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -4007,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="K77" s="3" t="str">
-        <f>+G77&amp;"-"&amp;I77</f>
+        <f t="shared" si="5"/>
         <v>04-01-01</v>
       </c>
       <c r="L77" s="3" t="s">
@@ -4026,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f>+D78&amp;"-"&amp;F78</f>
+        <f t="shared" si="4"/>
         <v>04-01</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -4039,7 +4036,7 @@
         <v>211</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f>+G78&amp;"-"&amp;I78</f>
+        <f t="shared" si="5"/>
         <v>04-01-02</v>
       </c>
       <c r="L78" s="3" t="s">
@@ -4058,7 +4055,7 @@
         <v>91</v>
       </c>
       <c r="G79" s="6" t="str">
-        <f>+D79&amp;"-"&amp;F79</f>
+        <f t="shared" si="4"/>
         <v>04-01</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -4071,14 +4068,14 @@
         <v>13</v>
       </c>
       <c r="K79" s="3" t="str">
-        <f>+G79&amp;"-"&amp;I79</f>
+        <f t="shared" si="5"/>
         <v>04-01-00</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D80" s="4" t="str">
         <f>+VLOOKUP(E80,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4090,7 +4087,7 @@
         <v>165</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f>+D80&amp;"-"&amp;F80</f>
+        <f t="shared" si="4"/>
         <v>06-10</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -4103,14 +4100,14 @@
         <v>212</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f>+G80&amp;"-"&amp;I80</f>
+        <f t="shared" si="5"/>
         <v>06-10-00</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D81" s="4" t="str">
         <f>+VLOOKUP(E81,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4122,7 +4119,7 @@
         <v>95</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f>+D81&amp;"-"&amp;F81</f>
+        <f t="shared" si="4"/>
         <v>07-05</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -4135,14 +4132,14 @@
         <v>77</v>
       </c>
       <c r="K81" s="3" t="str">
-        <f>+G81&amp;"-"&amp;I81</f>
+        <f t="shared" si="5"/>
         <v>07-05-00</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D82" s="4" t="str">
         <f>+VLOOKUP(E82,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4154,7 +4151,7 @@
         <v>95</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f>+D82&amp;"-"&amp;F82</f>
+        <f t="shared" si="4"/>
         <v>07-05</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -4167,7 +4164,7 @@
         <v>77</v>
       </c>
       <c r="K82" s="3" t="str">
-        <f>+G82&amp;"-"&amp;I82</f>
+        <f t="shared" si="5"/>
         <v>07-05-00</v>
       </c>
       <c r="L82" s="3" t="s">
@@ -4186,7 +4183,7 @@
         <v>92</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f>+D83&amp;"-"&amp;F83</f>
+        <f t="shared" si="4"/>
         <v>04-02</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -4199,14 +4196,14 @@
         <v>207</v>
       </c>
       <c r="K83" s="3" t="str">
-        <f>+G83&amp;"-"&amp;I83</f>
+        <f t="shared" si="5"/>
         <v>04-02-00</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D84" s="4" t="str">
         <f>+VLOOKUP(E84,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4218,7 +4215,7 @@
         <v>175</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f>+D84&amp;"-"&amp;F84</f>
+        <f t="shared" si="4"/>
         <v>06-11</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -4231,14 +4228,14 @@
         <v>213</v>
       </c>
       <c r="K84" s="3" t="str">
-        <f>+G84&amp;"-"&amp;I84</f>
+        <f t="shared" si="5"/>
         <v>06-11-00</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D85" s="4" t="str">
         <f>+VLOOKUP(E85,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4250,7 +4247,7 @@
         <v>175</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f>+D85&amp;"-"&amp;F85</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -4263,14 +4260,14 @@
         <v>123</v>
       </c>
       <c r="K85" s="3" t="str">
-        <f>+G85&amp;"-"&amp;I85</f>
+        <f t="shared" si="5"/>
         <v>01-11-00</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D86" s="4" t="str">
         <f>+VLOOKUP(E86,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4282,7 +4279,7 @@
         <v>175</v>
       </c>
       <c r="G86" s="6" t="str">
-        <f>+D86&amp;"-"&amp;F86</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -4295,14 +4292,14 @@
         <v>215</v>
       </c>
       <c r="K86" s="3" t="str">
-        <f>+G86&amp;"-"&amp;I86</f>
+        <f t="shared" si="5"/>
         <v>01-11-01</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D87" s="4" t="str">
         <f>+VLOOKUP(E87,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4314,7 +4311,7 @@
         <v>175</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f>+D87&amp;"-"&amp;F87</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -4327,14 +4324,14 @@
         <v>209</v>
       </c>
       <c r="K87" s="3" t="str">
-        <f>+G87&amp;"-"&amp;I87</f>
+        <f t="shared" si="5"/>
         <v>01-11-02</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D88" s="4" t="str">
         <f>+VLOOKUP(E88,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4346,7 +4343,7 @@
         <v>175</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f>+D88&amp;"-"&amp;F88</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -4359,14 +4356,14 @@
         <v>215</v>
       </c>
       <c r="K88" s="3" t="str">
-        <f>+G88&amp;"-"&amp;I88</f>
+        <f t="shared" si="5"/>
         <v>01-11-01</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D89" s="4" t="str">
         <f>+VLOOKUP(E89,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4378,7 +4375,7 @@
         <v>175</v>
       </c>
       <c r="G89" s="6" t="str">
-        <f>+D89&amp;"-"&amp;F89</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -4391,14 +4388,14 @@
         <v>215</v>
       </c>
       <c r="K89" s="3" t="str">
-        <f>+G89&amp;"-"&amp;I89</f>
+        <f t="shared" si="5"/>
         <v>01-11-01</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D90" s="4" t="str">
         <f>+VLOOKUP(E90,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4410,7 +4407,7 @@
         <v>175</v>
       </c>
       <c r="G90" s="6" t="str">
-        <f>+D90&amp;"-"&amp;F90</f>
+        <f t="shared" si="4"/>
         <v>01-11</v>
       </c>
       <c r="H90" s="3" t="s">
@@ -4423,14 +4420,14 @@
         <v>215</v>
       </c>
       <c r="K90" s="3" t="str">
-        <f>+G90&amp;"-"&amp;I90</f>
+        <f t="shared" si="5"/>
         <v>01-11-01</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D91" s="4" t="str">
         <f>+VLOOKUP(E91,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4442,7 +4439,7 @@
         <v>176</v>
       </c>
       <c r="G91" s="6" t="str">
-        <f>+D91&amp;"-"&amp;F91</f>
+        <f t="shared" si="4"/>
         <v>01-12</v>
       </c>
       <c r="H91" s="3" t="s">
@@ -4455,14 +4452,14 @@
         <v>214</v>
       </c>
       <c r="K91" s="3" t="str">
-        <f>+G91&amp;"-"&amp;I91</f>
+        <f t="shared" si="5"/>
         <v>01-12-00</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D92" s="4" t="str">
         <f>+VLOOKUP(E92,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4474,7 +4471,7 @@
         <v>176</v>
       </c>
       <c r="G92" s="6" t="str">
-        <f>+D92&amp;"-"&amp;F92</f>
+        <f t="shared" si="4"/>
         <v>01-12</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -4487,14 +4484,14 @@
         <v>214</v>
       </c>
       <c r="K92" s="3" t="str">
-        <f>+G92&amp;"-"&amp;I92</f>
+        <f t="shared" si="5"/>
         <v>01-12-00</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D93" s="4" t="str">
         <f>+VLOOKUP(E93,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4506,7 +4503,7 @@
         <v>96</v>
       </c>
       <c r="G93" s="6" t="str">
-        <f>+D93&amp;"-"&amp;F93</f>
+        <f t="shared" si="4"/>
         <v>02-06</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -4519,14 +4516,14 @@
         <v>115</v>
       </c>
       <c r="K93" s="3" t="str">
-        <f>+G93&amp;"-"&amp;I93</f>
+        <f t="shared" si="5"/>
         <v>02-06-05</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D94" s="4" t="str">
         <f>+VLOOKUP(E94,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4538,7 +4535,7 @@
         <v>96</v>
       </c>
       <c r="G94" s="6" t="str">
-        <f>+D94&amp;"-"&amp;F94</f>
+        <f t="shared" si="4"/>
         <v>02-06</v>
       </c>
       <c r="H94" s="3" t="s">
@@ -4551,14 +4548,14 @@
         <v>115</v>
       </c>
       <c r="K94" s="3" t="str">
-        <f>+G94&amp;"-"&amp;I94</f>
+        <f t="shared" si="5"/>
         <v>02-06-05</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D95" s="4" t="str">
         <f>+VLOOKUP(E95,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4570,7 +4567,7 @@
         <v>232</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f>+D95&amp;"-"&amp;F95</f>
+        <f t="shared" si="4"/>
         <v>03-15</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -4583,14 +4580,14 @@
         <v>23</v>
       </c>
       <c r="K95" s="3" t="str">
-        <f>+G95&amp;"-"&amp;I95</f>
+        <f t="shared" si="5"/>
         <v>03-15-00</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96" s="4" t="str">
         <f>+VLOOKUP(E96,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4602,7 +4599,7 @@
         <v>232</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f>+D96&amp;"-"&amp;F96</f>
+        <f t="shared" si="4"/>
         <v>03-15</v>
       </c>
       <c r="H96" s="3" t="s">
@@ -4615,7 +4612,7 @@
         <v>23</v>
       </c>
       <c r="K96" s="3" t="str">
-        <f>+G96&amp;"-"&amp;I96</f>
+        <f t="shared" si="5"/>
         <v>03-15-00</v>
       </c>
       <c r="L96" s="3" t="s">
@@ -4634,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="G97" s="6" t="str">
-        <f>+D97&amp;"-"&amp;F97</f>
+        <f t="shared" si="4"/>
         <v>04-04</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -4647,7 +4644,7 @@
         <v>81</v>
       </c>
       <c r="K97" s="3" t="str">
-        <f>+G97&amp;"-"&amp;I97</f>
+        <f t="shared" si="5"/>
         <v>04-04-00</v>
       </c>
       <c r="L97" s="3" t="s">
@@ -4666,7 +4663,7 @@
         <v>94</v>
       </c>
       <c r="G98" s="6" t="str">
-        <f>+D98&amp;"-"&amp;F98</f>
+        <f t="shared" si="4"/>
         <v>04-04</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -4679,14 +4676,14 @@
         <v>81</v>
       </c>
       <c r="K98" s="3" t="str">
-        <f>+G98&amp;"-"&amp;I98</f>
+        <f t="shared" si="5"/>
         <v>04-04-00</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99" s="4" t="str">
         <f>+VLOOKUP(E99,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4698,7 +4695,7 @@
         <v>95</v>
       </c>
       <c r="G99" s="6" t="str">
-        <f>+D99&amp;"-"&amp;F99</f>
+        <f t="shared" ref="G99:G130" si="6">+D99&amp;"-"&amp;F99</f>
         <v>05-05</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -4711,14 +4708,14 @@
         <v>217</v>
       </c>
       <c r="K99" s="3" t="str">
-        <f>+G99&amp;"-"&amp;I99</f>
+        <f t="shared" ref="K99:K130" si="7">+G99&amp;"-"&amp;I99</f>
         <v>05-05-00</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100" s="4" t="str">
         <f>+VLOOKUP(E100,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4730,7 +4727,7 @@
         <v>95</v>
       </c>
       <c r="G100" s="6" t="str">
-        <f>+D100&amp;"-"&amp;F100</f>
+        <f t="shared" si="6"/>
         <v>05-05</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -4743,14 +4740,14 @@
         <v>217</v>
       </c>
       <c r="K100" s="3" t="str">
-        <f>+G100&amp;"-"&amp;I100</f>
+        <f t="shared" si="7"/>
         <v>05-05-00</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D101" s="4" t="str">
         <f>+VLOOKUP(E101,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4762,7 +4759,7 @@
         <v>95</v>
       </c>
       <c r="G101" s="6" t="str">
-        <f>+D101&amp;"-"&amp;F101</f>
+        <f t="shared" si="6"/>
         <v>05-05</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -4775,14 +4772,14 @@
         <v>217</v>
       </c>
       <c r="K101" s="3" t="str">
-        <f>+G101&amp;"-"&amp;I101</f>
+        <f t="shared" si="7"/>
         <v>05-05-00</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102" s="4" t="str">
         <f>+VLOOKUP(E102,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4794,7 +4791,7 @@
         <v>95</v>
       </c>
       <c r="G102" s="6" t="str">
-        <f>+D102&amp;"-"&amp;F102</f>
+        <f t="shared" si="6"/>
         <v>05-05</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -4807,14 +4804,14 @@
         <v>218</v>
       </c>
       <c r="K102" s="3" t="str">
-        <f>+G102&amp;"-"&amp;I102</f>
+        <f t="shared" si="7"/>
         <v>05-05-01</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D103" s="4" t="str">
         <f>+VLOOKUP(E103,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4826,7 +4823,7 @@
         <v>95</v>
       </c>
       <c r="G103" s="6" t="str">
-        <f>+D103&amp;"-"&amp;F103</f>
+        <f t="shared" si="6"/>
         <v>05-05</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -4839,14 +4836,14 @@
         <v>220</v>
       </c>
       <c r="K103" s="3" t="str">
-        <f>+G103&amp;"-"&amp;I103</f>
+        <f t="shared" si="7"/>
         <v>05-05-03</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D104" s="4" t="str">
         <f>+VLOOKUP(E104,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4858,7 +4855,7 @@
         <v>96</v>
       </c>
       <c r="G104" s="6" t="str">
-        <f>+D104&amp;"-"&amp;F104</f>
+        <f t="shared" si="6"/>
         <v>05-06</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -4871,14 +4868,14 @@
         <v>169</v>
       </c>
       <c r="K104" s="3" t="str">
-        <f>+G104&amp;"-"&amp;I104</f>
+        <f t="shared" si="7"/>
         <v>05-06-00</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D105" s="4" t="str">
         <f>+VLOOKUP(E105,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -4890,7 +4887,7 @@
         <v>91</v>
       </c>
       <c r="G105" s="6" t="str">
-        <f>+D105&amp;"-"&amp;F105</f>
+        <f t="shared" si="6"/>
         <v>09-01</v>
       </c>
       <c r="H105" s="3" t="s">
@@ -4903,14 +4900,14 @@
         <v>236</v>
       </c>
       <c r="K105" s="3" t="str">
-        <f>+G105&amp;"-"&amp;I105</f>
+        <f t="shared" si="7"/>
         <v>09-01-00</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D106" s="4" t="str">
         <f>+VLOOKUP(E106,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -4922,7 +4919,7 @@
         <v>91</v>
       </c>
       <c r="G106" s="6" t="str">
-        <f>+D106&amp;"-"&amp;F106</f>
+        <f t="shared" si="6"/>
         <v>09-01</v>
       </c>
       <c r="H106" s="3" t="s">
@@ -4935,14 +4932,14 @@
         <v>237</v>
       </c>
       <c r="K106" s="3" t="str">
-        <f>+G106&amp;"-"&amp;I106</f>
+        <f t="shared" si="7"/>
         <v>09-01-01</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D107" s="4" t="str">
         <f>+VLOOKUP(E107,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4954,7 +4951,7 @@
         <v>230</v>
       </c>
       <c r="G107" s="6" t="str">
-        <f>+D107&amp;"-"&amp;F107</f>
+        <f t="shared" si="6"/>
         <v>01-13</v>
       </c>
       <c r="H107" s="3" t="s">
@@ -4967,14 +4964,14 @@
         <v>125</v>
       </c>
       <c r="K107" s="3" t="str">
-        <f>+G107&amp;"-"&amp;I107</f>
+        <f t="shared" si="7"/>
         <v>01-13-00</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="4:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:12" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D108" s="4" t="str">
         <f>+VLOOKUP(E108,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4986,7 +4983,7 @@
         <v>97</v>
       </c>
       <c r="G108" s="6" t="str">
-        <f>+D108&amp;"-"&amp;F108</f>
+        <f t="shared" si="6"/>
         <v>02-07</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -4999,14 +4996,14 @@
         <v>132</v>
       </c>
       <c r="K108" s="3" t="str">
-        <f>+G108&amp;"-"&amp;I108</f>
+        <f t="shared" si="7"/>
         <v>02-07-06</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D109" s="4" t="str">
         <f>+VLOOKUP(E109,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5018,7 +5015,7 @@
         <v>176</v>
       </c>
       <c r="G109" s="6" t="str">
-        <f>+D109&amp;"-"&amp;F109</f>
+        <f t="shared" si="6"/>
         <v>06-12</v>
       </c>
       <c r="H109" s="3" t="s">
@@ -5031,14 +5028,14 @@
         <v>126</v>
       </c>
       <c r="K109" s="3" t="str">
-        <f>+G109&amp;"-"&amp;I109</f>
+        <f t="shared" si="7"/>
         <v>06-12-00</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D110" s="4" t="str">
         <f>+VLOOKUP(E110,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5050,7 +5047,7 @@
         <v>176</v>
       </c>
       <c r="G110" s="6" t="str">
-        <f>+D110&amp;"-"&amp;F110</f>
+        <f t="shared" si="6"/>
         <v>06-12</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -5063,14 +5060,14 @@
         <v>126</v>
       </c>
       <c r="K110" s="3" t="str">
-        <f>+G110&amp;"-"&amp;I110</f>
+        <f t="shared" si="7"/>
         <v>06-12-00</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="str">
         <f>+VLOOKUP(E111,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5082,7 +5079,7 @@
         <v>97</v>
       </c>
       <c r="G111" s="6" t="str">
-        <f>+D111&amp;"-"&amp;F111</f>
+        <f t="shared" si="6"/>
         <v>05-07</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -5095,14 +5092,14 @@
         <v>127</v>
       </c>
       <c r="K111" s="3" t="str">
-        <f>+G111&amp;"-"&amp;I111</f>
+        <f t="shared" si="7"/>
         <v>05-07-00</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112" s="9" t="str">
         <f>+VLOOKUP(E112,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5114,7 +5111,7 @@
         <v>98</v>
       </c>
       <c r="G112" s="6" t="str">
-        <f>+D112&amp;"-"&amp;F112</f>
+        <f t="shared" si="6"/>
         <v>05-08</v>
       </c>
       <c r="H112" s="3" t="s">
@@ -5127,14 +5124,14 @@
         <v>116</v>
       </c>
       <c r="K112" s="3" t="str">
-        <f>+G112&amp;"-"&amp;I112</f>
+        <f t="shared" si="7"/>
         <v>05-08-00</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D113" s="9" t="str">
         <f>+VLOOKUP(E113,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5146,7 +5143,7 @@
         <v>98</v>
       </c>
       <c r="G113" s="6" t="str">
-        <f>+D113&amp;"-"&amp;F113</f>
+        <f t="shared" si="6"/>
         <v>05-08</v>
       </c>
       <c r="H113" s="3" t="s">
@@ -5159,14 +5156,14 @@
         <v>116</v>
       </c>
       <c r="K113" s="3" t="str">
-        <f>+G113&amp;"-"&amp;I113</f>
+        <f t="shared" si="7"/>
         <v>05-08-00</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="str">
         <f>+VLOOKUP(E114,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5178,7 +5175,7 @@
         <v>98</v>
       </c>
       <c r="G114" s="6" t="str">
-        <f>+D114&amp;"-"&amp;F114</f>
+        <f t="shared" si="6"/>
         <v>05-08</v>
       </c>
       <c r="H114" s="3" t="s">
@@ -5191,14 +5188,14 @@
         <v>116</v>
       </c>
       <c r="K114" s="3" t="str">
-        <f>+G114&amp;"-"&amp;I114</f>
+        <f t="shared" si="7"/>
         <v>05-08-00</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D115" s="9" t="str">
         <f>+VLOOKUP(E115,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5210,7 +5207,7 @@
         <v>96</v>
       </c>
       <c r="G115" s="6" t="str">
-        <f>+D115&amp;"-"&amp;F115</f>
+        <f t="shared" si="6"/>
         <v>07-06</v>
       </c>
       <c r="H115" s="3" t="s">
@@ -5223,14 +5220,14 @@
         <v>134</v>
       </c>
       <c r="K115" s="3" t="str">
-        <f>+G115&amp;"-"&amp;I115</f>
+        <f t="shared" si="7"/>
         <v>07-06-00</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="str">
         <f>+VLOOKUP(E116,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5242,7 +5239,7 @@
         <v>96</v>
       </c>
       <c r="G116" s="6" t="str">
-        <f>+D116&amp;"-"&amp;F116</f>
+        <f t="shared" si="6"/>
         <v>07-06</v>
       </c>
       <c r="H116" s="3" t="s">
@@ -5255,7 +5252,7 @@
         <v>134</v>
       </c>
       <c r="K116" s="3" t="str">
-        <f>+G116&amp;"-"&amp;I116</f>
+        <f t="shared" si="7"/>
         <v>07-06-00</v>
       </c>
       <c r="L116" s="3" t="s">
@@ -5274,7 +5271,7 @@
         <v>95</v>
       </c>
       <c r="G117" s="6" t="str">
-        <f>+D117&amp;"-"&amp;F117</f>
+        <f t="shared" si="6"/>
         <v>04-05</v>
       </c>
       <c r="H117" s="3" t="s">
@@ -5287,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="K117" s="3" t="str">
-        <f>+G117&amp;"-"&amp;I117</f>
+        <f t="shared" si="7"/>
         <v>04-05-00</v>
       </c>
       <c r="L117" s="3" t="s">
@@ -5306,7 +5303,7 @@
         <v>95</v>
       </c>
       <c r="G118" s="6" t="str">
-        <f>+D118&amp;"-"&amp;F118</f>
+        <f t="shared" si="6"/>
         <v>04-05</v>
       </c>
       <c r="H118" s="3" t="s">
@@ -5319,7 +5316,7 @@
         <v>221</v>
       </c>
       <c r="K118" s="3" t="str">
-        <f>+G118&amp;"-"&amp;I118</f>
+        <f t="shared" si="7"/>
         <v>04-05-01</v>
       </c>
       <c r="L118" s="3" t="s">
@@ -5338,7 +5335,7 @@
         <v>95</v>
       </c>
       <c r="G119" s="6" t="str">
-        <f>+D119&amp;"-"&amp;F119</f>
+        <f t="shared" si="6"/>
         <v>04-05</v>
       </c>
       <c r="H119" s="3" t="s">
@@ -5351,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="K119" s="3" t="str">
-        <f>+G119&amp;"-"&amp;I119</f>
+        <f t="shared" si="7"/>
         <v>04-05-00</v>
       </c>
       <c r="L119" s="3" t="s">
@@ -5370,7 +5367,7 @@
         <v>95</v>
       </c>
       <c r="G120" s="6" t="str">
-        <f>+D120&amp;"-"&amp;F120</f>
+        <f t="shared" si="6"/>
         <v>04-05</v>
       </c>
       <c r="H120" s="3" t="s">
@@ -5383,14 +5380,14 @@
         <v>221</v>
       </c>
       <c r="K120" s="3" t="str">
-        <f>+G120&amp;"-"&amp;I120</f>
+        <f t="shared" si="7"/>
         <v>04-05-01</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D121" s="9" t="str">
         <f>+VLOOKUP(E121,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5402,7 +5399,7 @@
         <v>164</v>
       </c>
       <c r="G121" s="6" t="str">
-        <f>+D121&amp;"-"&amp;F121</f>
+        <f t="shared" si="6"/>
         <v>05-09</v>
       </c>
       <c r="H121" s="3" t="s">
@@ -5415,14 +5412,14 @@
         <v>219</v>
       </c>
       <c r="K121" s="3" t="str">
-        <f>+G121&amp;"-"&amp;I121</f>
+        <f t="shared" si="7"/>
         <v>05-09-00</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D122" s="9" t="str">
         <f>+VLOOKUP(E122,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5434,7 +5431,7 @@
         <v>97</v>
       </c>
       <c r="G122" s="6" t="str">
-        <f>+D122&amp;"-"&amp;F122</f>
+        <f t="shared" si="6"/>
         <v>07-07</v>
       </c>
       <c r="H122" s="3" t="s">
@@ -5447,14 +5444,14 @@
         <v>1</v>
       </c>
       <c r="K122" s="3" t="str">
-        <f>+G122&amp;"-"&amp;I122</f>
+        <f t="shared" si="7"/>
         <v>07-07-00</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D123" s="9" t="str">
         <f>+VLOOKUP(E123,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5466,7 +5463,7 @@
         <v>230</v>
       </c>
       <c r="G123" s="6" t="str">
-        <f>+D123&amp;"-"&amp;F123</f>
+        <f t="shared" si="6"/>
         <v>06-13</v>
       </c>
       <c r="H123" s="3" t="s">
@@ -5479,14 +5476,14 @@
         <v>131</v>
       </c>
       <c r="K123" s="3" t="str">
-        <f>+G123&amp;"-"&amp;I123</f>
+        <f t="shared" si="7"/>
         <v>06-13-00</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="4:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:12" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D124" s="9" t="str">
         <f>+VLOOKUP(E124,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -5498,7 +5495,7 @@
         <v>234</v>
       </c>
       <c r="G124" s="6" t="str">
-        <f>+D124&amp;"-"&amp;F124</f>
+        <f t="shared" si="6"/>
         <v>03-16</v>
       </c>
       <c r="H124" s="7" t="s">
@@ -5511,14 +5508,14 @@
         <v>222</v>
       </c>
       <c r="K124" s="3" t="str">
-        <f>+G124&amp;"-"&amp;I124</f>
+        <f t="shared" si="7"/>
         <v>03-16-00</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D125" s="9" t="str">
         <f>+VLOOKUP(E125,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5530,7 +5527,7 @@
         <v>98</v>
       </c>
       <c r="G125" s="6" t="str">
-        <f>+D125&amp;"-"&amp;F125</f>
+        <f t="shared" si="6"/>
         <v>02-08</v>
       </c>
       <c r="H125" s="3" t="s">
@@ -5543,7 +5540,7 @@
         <v>20</v>
       </c>
       <c r="K125" s="3" t="str">
-        <f>+G125&amp;"-"&amp;I125</f>
+        <f t="shared" si="7"/>
         <v>02-08-07</v>
       </c>
       <c r="L125" s="3" t="s">
@@ -5562,7 +5559,7 @@
         <v>93</v>
       </c>
       <c r="G126" s="6" t="str">
-        <f>+D126&amp;"-"&amp;F126</f>
+        <f t="shared" si="6"/>
         <v>04-03</v>
       </c>
       <c r="H126" s="3" t="s">
@@ -5575,7 +5572,7 @@
         <v>229</v>
       </c>
       <c r="K126" s="3" t="str">
-        <f>+G126&amp;"-"&amp;I126</f>
+        <f t="shared" si="7"/>
         <v>04-03-00</v>
       </c>
       <c r="L126" s="3" t="s">
@@ -5594,7 +5591,7 @@
         <v>93</v>
       </c>
       <c r="G127" s="6" t="str">
-        <f>+D127&amp;"-"&amp;F127</f>
+        <f t="shared" si="6"/>
         <v>04-03</v>
       </c>
       <c r="H127" s="3" t="s">
@@ -5607,14 +5604,14 @@
         <v>229</v>
       </c>
       <c r="K127" s="3" t="str">
-        <f>+G127&amp;"-"&amp;I127</f>
+        <f t="shared" si="7"/>
         <v>04-03-00</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D128" s="9" t="str">
         <f>+VLOOKUP(E128,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -5626,7 +5623,7 @@
         <v>231</v>
       </c>
       <c r="G128" s="6" t="str">
-        <f>+D128&amp;"-"&amp;F128</f>
+        <f t="shared" si="6"/>
         <v>01-14</v>
       </c>
       <c r="H128" s="3" t="s">
@@ -5639,14 +5636,14 @@
         <v>90</v>
       </c>
       <c r="K128" s="3" t="str">
-        <f>+G128&amp;"-"&amp;I128</f>
+        <f t="shared" si="7"/>
         <v>01-14-00</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D129" s="9" t="str">
         <f>+VLOOKUP(E129,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5658,7 +5655,7 @@
         <v>231</v>
       </c>
       <c r="G129" s="6" t="str">
-        <f>+D129&amp;"-"&amp;F129</f>
+        <f t="shared" si="6"/>
         <v>06-14</v>
       </c>
       <c r="H129" s="3" t="s">
@@ -5671,14 +5668,14 @@
         <v>223</v>
       </c>
       <c r="K129" s="3" t="str">
-        <f>+G129&amp;"-"&amp;I129</f>
+        <f t="shared" si="7"/>
         <v>06-14-00</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D130" s="9" t="str">
         <f>+VLOOKUP(E130,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>11</v>
@@ -5690,7 +5687,7 @@
         <v>91</v>
       </c>
       <c r="G130" s="6" t="str">
-        <f>+D130&amp;"-"&amp;F130</f>
+        <f t="shared" si="6"/>
         <v>11-01</v>
       </c>
       <c r="H130" s="3" t="s">
@@ -5703,14 +5700,14 @@
         <v>177</v>
       </c>
       <c r="K130" s="3" t="str">
-        <f>+G130&amp;"-"&amp;I130</f>
+        <f t="shared" si="7"/>
         <v>11-01-00</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D131" s="9" t="str">
         <f>+VLOOKUP(E131,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5722,7 +5719,7 @@
         <v>91</v>
       </c>
       <c r="G131" s="6" t="str">
-        <f>+D131&amp;"-"&amp;F131</f>
+        <f t="shared" ref="G131:G162" si="8">+D131&amp;"-"&amp;F131</f>
         <v>02-01</v>
       </c>
       <c r="H131" s="3" t="s">
@@ -5735,14 +5732,14 @@
         <v>177</v>
       </c>
       <c r="K131" s="3" t="str">
-        <f>+G131&amp;"-"&amp;I131</f>
+        <f t="shared" ref="K131:K154" si="9">+G131&amp;"-"&amp;I131</f>
         <v>02-01-00</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D132" s="9" t="str">
         <f>+VLOOKUP(E132,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5754,7 +5751,7 @@
         <v>94</v>
       </c>
       <c r="G132" s="6" t="str">
-        <f>+D132&amp;"-"&amp;F132</f>
+        <f t="shared" si="8"/>
         <v>05-04</v>
       </c>
       <c r="H132" s="3" t="s">
@@ -5767,14 +5764,14 @@
         <v>177</v>
       </c>
       <c r="K132" s="3" t="str">
-        <f>+G132&amp;"-"&amp;I132</f>
+        <f t="shared" si="9"/>
         <v>05-04-00</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D133" s="9" t="str">
         <f>+VLOOKUP(E133,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5786,7 +5783,7 @@
         <v>94</v>
       </c>
       <c r="G133" s="6" t="str">
-        <f>+D133&amp;"-"&amp;F133</f>
+        <f t="shared" si="8"/>
         <v>05-04</v>
       </c>
       <c r="H133" s="3" t="s">
@@ -5799,14 +5796,14 @@
         <v>177</v>
       </c>
       <c r="K133" s="3" t="str">
-        <f>+G133&amp;"-"&amp;I133</f>
+        <f t="shared" si="9"/>
         <v>05-04-00</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D134" s="9" t="str">
         <f>+VLOOKUP(E134,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>10</v>
@@ -5818,7 +5815,7 @@
         <v>97</v>
       </c>
       <c r="G134" s="6" t="str">
-        <f>+D134&amp;"-"&amp;F134</f>
+        <f t="shared" si="8"/>
         <v>10-07</v>
       </c>
       <c r="H134" s="3" t="s">
@@ -5831,14 +5828,14 @@
         <v>177</v>
       </c>
       <c r="K134" s="3" t="str">
-        <f>+G134&amp;"-"&amp;I134</f>
+        <f t="shared" si="9"/>
         <v>10-07-00</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D135" s="9" t="str">
         <f>+VLOOKUP(E135,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5850,7 +5847,7 @@
         <v>94</v>
       </c>
       <c r="G135" s="6" t="str">
-        <f>+D135&amp;"-"&amp;F135</f>
+        <f t="shared" si="8"/>
         <v>06-04</v>
       </c>
       <c r="H135" s="3" t="s">
@@ -5863,14 +5860,14 @@
         <v>177</v>
       </c>
       <c r="K135" s="3" t="str">
-        <f>+G135&amp;"-"&amp;I135</f>
+        <f t="shared" si="9"/>
         <v>06-04-00</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D136" s="9" t="str">
         <f>+VLOOKUP(E136,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5882,7 +5879,7 @@
         <v>94</v>
       </c>
       <c r="G136" s="6" t="str">
-        <f>+D136&amp;"-"&amp;F136</f>
+        <f t="shared" si="8"/>
         <v>06-04</v>
       </c>
       <c r="H136" s="3" t="s">
@@ -5895,14 +5892,14 @@
         <v>177</v>
       </c>
       <c r="K136" s="3" t="str">
-        <f>+G136&amp;"-"&amp;I136</f>
+        <f t="shared" si="9"/>
         <v>06-04-00</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D137" s="9" t="str">
         <f>+VLOOKUP(E137,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5914,7 +5911,7 @@
         <v>94</v>
       </c>
       <c r="G137" s="6" t="str">
-        <f>+D137&amp;"-"&amp;F137</f>
+        <f t="shared" si="8"/>
         <v>06-04</v>
       </c>
       <c r="H137" s="3" t="s">
@@ -5927,14 +5924,14 @@
         <v>177</v>
       </c>
       <c r="K137" s="3" t="str">
-        <f>+G137&amp;"-"&amp;I137</f>
+        <f t="shared" si="9"/>
         <v>06-04-00</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D138" s="9" t="str">
         <f>+VLOOKUP(E138,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5946,7 +5943,7 @@
         <v>92</v>
       </c>
       <c r="G138" s="6" t="str">
-        <f>+D138&amp;"-"&amp;F138</f>
+        <f t="shared" si="8"/>
         <v>07-02</v>
       </c>
       <c r="H138" s="3" t="s">
@@ -5959,14 +5956,14 @@
         <v>177</v>
       </c>
       <c r="K138" s="3" t="str">
-        <f>+G138&amp;"-"&amp;I138</f>
+        <f t="shared" si="9"/>
         <v>07-02-00</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D139" s="9" t="str">
         <f>+VLOOKUP(E139,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5978,7 +5975,7 @@
         <v>164</v>
       </c>
       <c r="G139" s="6" t="str">
-        <f>+D139&amp;"-"&amp;F139</f>
+        <f t="shared" si="8"/>
         <v>02-09</v>
       </c>
       <c r="H139" s="3" t="s">
@@ -5989,14 +5986,14 @@
         <v>224</v>
       </c>
       <c r="K139" s="3" t="str">
-        <f>+G139&amp;"-"&amp;I139</f>
+        <f t="shared" si="9"/>
         <v>02-09-</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D140" s="9" t="str">
         <f>+VLOOKUP(E140,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6008,7 +6005,7 @@
         <v>232</v>
       </c>
       <c r="G140" s="6" t="str">
-        <f>+D140&amp;"-"&amp;F140</f>
+        <f t="shared" si="8"/>
         <v>06-15</v>
       </c>
       <c r="H140" s="3" t="s">
@@ -6021,14 +6018,14 @@
         <v>82</v>
       </c>
       <c r="K140" s="3" t="str">
-        <f>+G140&amp;"-"&amp;I140</f>
+        <f t="shared" si="9"/>
         <v>06-15-00</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D141" s="9" t="str">
         <f>+VLOOKUP(E141,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6040,7 +6037,7 @@
         <v>234</v>
       </c>
       <c r="G141" s="6" t="str">
-        <f>+D141&amp;"-"&amp;F141</f>
+        <f t="shared" si="8"/>
         <v>06-16</v>
       </c>
       <c r="H141" s="3" t="s">
@@ -6053,14 +6050,14 @@
         <v>118</v>
       </c>
       <c r="K141" s="3" t="str">
-        <f>+G141&amp;"-"&amp;I141</f>
+        <f t="shared" si="9"/>
         <v>06-16-00</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D142" s="9" t="str">
         <f>+VLOOKUP(E142,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6072,7 +6069,7 @@
         <v>92</v>
       </c>
       <c r="G142" s="6" t="str">
-        <f>+D142&amp;"-"&amp;F142</f>
+        <f t="shared" si="8"/>
         <v>09-02</v>
       </c>
       <c r="H142" s="3" t="s">
@@ -6085,14 +6082,14 @@
         <v>149</v>
       </c>
       <c r="K142" s="3" t="str">
-        <f>+G142&amp;"-"&amp;I142</f>
+        <f t="shared" si="9"/>
         <v>09-02-00</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D143" s="9" t="str">
         <f>+VLOOKUP(E143,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6104,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="G143" s="6" t="str">
-        <f>+D143&amp;"-"&amp;F143</f>
+        <f t="shared" si="8"/>
         <v>09-02</v>
       </c>
       <c r="H143" s="3" t="s">
@@ -6117,14 +6114,14 @@
         <v>149</v>
       </c>
       <c r="K143" s="3" t="str">
-        <f>+G143&amp;"-"&amp;I143</f>
+        <f t="shared" si="9"/>
         <v>09-02-00</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D144" s="9" t="str">
         <f>+VLOOKUP(E144,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6136,7 +6133,7 @@
         <v>91</v>
       </c>
       <c r="G144" s="6" t="str">
-        <f>+D144&amp;"-"&amp;F144</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H144" s="3" t="s">
@@ -6149,14 +6146,14 @@
         <v>178</v>
       </c>
       <c r="K144" s="3" t="str">
-        <f>+G144&amp;"-"&amp;I144</f>
+        <f t="shared" si="9"/>
         <v>08-01-00</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D145" s="9" t="str">
         <f>+VLOOKUP(E145,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6168,7 +6165,7 @@
         <v>91</v>
       </c>
       <c r="G145" s="6" t="str">
-        <f>+D145&amp;"-"&amp;F145</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H145" s="3" t="s">
@@ -6181,14 +6178,14 @@
         <v>179</v>
       </c>
       <c r="K145" s="3" t="str">
-        <f>+G145&amp;"-"&amp;I145</f>
+        <f t="shared" si="9"/>
         <v>08-01-01</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D146" s="9" t="str">
         <f>+VLOOKUP(E146,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6200,7 +6197,7 @@
         <v>91</v>
       </c>
       <c r="G146" s="6" t="str">
-        <f>+D146&amp;"-"&amp;F146</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H146" s="3" t="s">
@@ -6213,14 +6210,14 @@
         <v>180</v>
       </c>
       <c r="K146" s="3" t="str">
-        <f>+G146&amp;"-"&amp;I146</f>
+        <f t="shared" si="9"/>
         <v>08-01-02</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D147" s="9" t="str">
         <f>+VLOOKUP(E147,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6232,7 +6229,7 @@
         <v>91</v>
       </c>
       <c r="G147" s="6" t="str">
-        <f>+D147&amp;"-"&amp;F147</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H147" s="3" t="s">
@@ -6245,14 +6242,14 @@
         <v>216</v>
       </c>
       <c r="K147" s="3" t="str">
-        <f>+G147&amp;"-"&amp;I147</f>
+        <f t="shared" si="9"/>
         <v>08-01-03</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D148" s="9" t="str">
         <f>+VLOOKUP(E148,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6264,7 +6261,7 @@
         <v>91</v>
       </c>
       <c r="G148" s="6" t="str">
-        <f>+D148&amp;"-"&amp;F148</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H148" s="3" t="s">
@@ -6277,14 +6274,14 @@
         <v>235</v>
       </c>
       <c r="K148" s="3" t="str">
-        <f>+G148&amp;"-"&amp;I148</f>
+        <f t="shared" si="9"/>
         <v>08-01-04</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D149" s="9" t="str">
         <f>+VLOOKUP(E149,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6296,7 +6293,7 @@
         <v>91</v>
       </c>
       <c r="G149" s="6" t="str">
-        <f>+D149&amp;"-"&amp;F149</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H149" s="3" t="s">
@@ -6309,14 +6306,14 @@
         <v>147</v>
       </c>
       <c r="K149" s="3" t="str">
-        <f>+G149&amp;"-"&amp;I149</f>
+        <f t="shared" si="9"/>
         <v>08-01-05</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D150" s="9" t="str">
         <f>+VLOOKUP(E150,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6328,7 +6325,7 @@
         <v>91</v>
       </c>
       <c r="G150" s="6" t="str">
-        <f>+D150&amp;"-"&amp;F150</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H150" s="3" t="s">
@@ -6341,14 +6338,14 @@
         <v>22</v>
       </c>
       <c r="K150" s="3" t="str">
-        <f>+G150&amp;"-"&amp;I150</f>
+        <f t="shared" si="9"/>
         <v>08-01-05</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D151" s="9" t="str">
         <f>+VLOOKUP(E151,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6360,7 +6357,7 @@
         <v>91</v>
       </c>
       <c r="G151" s="6" t="str">
-        <f>+D151&amp;"-"&amp;F151</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H151" s="3" t="s">
@@ -6373,14 +6370,14 @@
         <v>180</v>
       </c>
       <c r="K151" s="3" t="str">
-        <f>+G151&amp;"-"&amp;I151</f>
+        <f t="shared" si="9"/>
         <v>08-01-02</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D152" s="9" t="str">
         <f>+VLOOKUP(E152,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6392,7 +6389,7 @@
         <v>91</v>
       </c>
       <c r="G152" s="6" t="str">
-        <f>+D152&amp;"-"&amp;F152</f>
+        <f t="shared" si="8"/>
         <v>08-01</v>
       </c>
       <c r="H152" s="3" t="s">
@@ -6405,14 +6402,14 @@
         <v>180</v>
       </c>
       <c r="K152" s="3" t="str">
-        <f>+G152&amp;"-"&amp;I152</f>
+        <f t="shared" si="9"/>
         <v>08-01-02</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D153" s="9" t="str">
         <f>+VLOOKUP(E153,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -6424,7 +6421,7 @@
         <v>232</v>
       </c>
       <c r="G153" s="6" t="str">
-        <f>+D153&amp;"-"&amp;F153</f>
+        <f t="shared" si="8"/>
         <v>01-15</v>
       </c>
       <c r="H153" s="3" t="s">
@@ -6437,14 +6434,14 @@
         <v>226</v>
       </c>
       <c r="K153" s="3" t="str">
-        <f>+G153&amp;"-"&amp;I153</f>
+        <f t="shared" si="9"/>
         <v>01-15-00</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D154" s="9" t="str">
         <f>+VLOOKUP(E154,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -6456,7 +6453,7 @@
         <v>232</v>
       </c>
       <c r="G154" s="6" t="str">
-        <f>+D154&amp;"-"&amp;F154</f>
+        <f t="shared" si="8"/>
         <v>01-15</v>
       </c>
       <c r="H154" s="3" t="s">
@@ -6469,7 +6466,7 @@
         <v>227</v>
       </c>
       <c r="K154" s="3" t="str">
-        <f>+G154&amp;"-"&amp;I154</f>
+        <f t="shared" si="9"/>
         <v>01-15-01</v>
       </c>
       <c r="L154" s="3" t="s">
@@ -6479,34 +6476,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48 J36:J46 J50:J52">
-    <cfRule type="duplicateValues" dxfId="28" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J75">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
     <cfRule type="duplicateValues" dxfId="20" priority="8"/>
@@ -6533,10 +6530,10 @@
     <cfRule type="duplicateValues" dxfId="13" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D9353-1F56-47CE-A3F7-4C5DDBC178D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231729C5-31F1-44EB-B850-6B7C15F6574A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{414B5265-9344-4A73-9B4E-1EB725646290}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="247">
   <si>
     <t>Tropicales y subtropicales</t>
   </si>
@@ -755,6 +755,27 @@
   </si>
   <si>
     <t>Guinda ácida</t>
+  </si>
+  <si>
+    <t>07-03</t>
+  </si>
+  <si>
+    <t>07-03-00</t>
+  </si>
+  <si>
+    <t>Breva</t>
+  </si>
+  <si>
+    <t>04-05</t>
+  </si>
+  <si>
+    <t>04-05-01</t>
+  </si>
+  <si>
+    <t>01-10</t>
+  </si>
+  <si>
+    <t>01-10-00</t>
   </si>
 </sst>
 </file>
@@ -847,94 +868,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1135,6 +1068,94 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1160,27 +1181,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L154" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="D2:L154" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Frutos de pepita"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:L154">
-    <sortCondition ref="H3:H154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L157" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="D2:L157" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:L155">
+    <sortCondition ref="H3:H155"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1483,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E28C3-EA76-4080-AF4E-19AE1D68A723}">
-  <dimension ref="A2:S154"/>
+  <dimension ref="A2:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156:K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1533,7 +1548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1744,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1767,7 +1782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="D15" s="4" t="str">
         <f>+VLOOKUP(E15,Categoría[[Categoría]:[Codigo]],2,0)</f>
@@ -2028,7 +2043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="str">
         <f>+VLOOKUP(E16,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2060,7 +2075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="str">
         <f>+VLOOKUP(E17,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2092,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="str">
         <f>+VLOOKUP(E18,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2124,7 +2139,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="str">
         <f>+VLOOKUP(E19,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2156,7 +2171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D20" s="4" t="str">
         <f>+VLOOKUP(E20,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2188,7 +2203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="str">
         <f>+VLOOKUP(E21,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2220,7 +2235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D22" s="4" t="str">
         <f>+VLOOKUP(E22,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2252,7 +2267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="str">
         <f>+VLOOKUP(E23,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2284,7 +2299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="str">
         <f>+VLOOKUP(E24,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2316,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="str">
         <f>+VLOOKUP(E25,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2348,7 +2363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="str">
         <f>+VLOOKUP(E26,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2380,7 +2395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="str">
         <f>+VLOOKUP(E27,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2412,7 +2427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(E28,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2444,7 +2459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="str">
         <f>+VLOOKUP(E29,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2476,7 +2491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(E30,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2508,7 +2523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(E31,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2540,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(E32,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2572,7 +2587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D33" s="8" t="s">
         <v>91</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D34" s="4" t="str">
         <f>+VLOOKUP(E34,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2635,7 +2650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(E35,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2647,7 +2662,7 @@
         <v>176</v>
       </c>
       <c r="G35" s="6" t="str">
-        <f t="shared" ref="G35:G66" si="2">+D35&amp;"-"&amp;F35</f>
+        <f t="shared" ref="G35:G67" si="2">+D35&amp;"-"&amp;F35</f>
         <v>03-12</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2660,14 +2675,14 @@
         <v>24</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f t="shared" ref="K35:K66" si="3">+G35&amp;"-"&amp;I35</f>
+        <f t="shared" ref="K35:K67" si="3">+G35&amp;"-"&amp;I35</f>
         <v>03-12-00</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="str">
         <f>+VLOOKUP(E36,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2699,7 +2714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(E37,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2731,7 +2746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(E38,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2763,7 +2778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(E39,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2795,7 +2810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(E40,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2827,7 +2842,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(E41,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2859,7 +2874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(E42,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2891,7 +2906,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D43" s="4" t="str">
         <f>+VLOOKUP(E43,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2923,7 +2938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(E44,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2955,7 +2970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D45" s="4" t="str">
         <f>+VLOOKUP(E45,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -2987,7 +3002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D46" s="4" t="str">
         <f>+VLOOKUP(E46,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3083,7 +3098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(E49,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3115,10 +3130,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="4" t="str">
-        <f>+VLOOKUP(E50,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D50" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>0</v>
@@ -3126,60 +3140,58 @@
       <c r="F50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="6" t="str">
+      <c r="G50" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D51" s="4" t="str">
+        <f>+VLOOKUP(E51,Categoría[[Categoría]:[Codigo]],2,0)</f>
+        <v>07</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6" t="str">
         <f t="shared" si="2"/>
         <v>07-03</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="I51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K50" s="3" t="str">
+      <c r="K51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>07-03-00</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="4" t="str">
-        <f>+VLOOKUP(E51,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>03</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>03-14</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K51" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>03-14-00</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(E52,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3208,42 +3220,42 @@
         <v>03-14-00</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(E53,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
+        <v>03</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="G53" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>01-09</v>
+        <v>03-14</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K53" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>01-09-00</v>
+        <v>03-14-00</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D54" s="4" t="str">
         <f>+VLOOKUP(E54,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3252,30 +3264,30 @@
         <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G54" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>01-10</v>
+        <v>01-09</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="K54" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>01-10-00</v>
+        <v>01-09-00</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D55" s="4" t="str">
         <f>+VLOOKUP(E55,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3304,74 +3316,74 @@
         <v>01-10-00</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D56" s="4" t="str">
         <f>+VLOOKUP(E56,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="G56" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>06-08</v>
+        <v>01-10</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="K56" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>06-08-00</v>
+        <v>01-10-00</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D57" s="4" t="str">
         <f>+VLOOKUP(E57,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
+        <v>06</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G57" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>01-08</v>
+        <v>06-08</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="K57" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>01-08-00</v>
+        <v>06-08-00</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D58" s="4" t="str">
         <f>+VLOOKUP(E58,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3400,10 +3412,10 @@
         <v>01-08-00</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D59" s="4" t="str">
         <f>+VLOOKUP(E59,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3422,20 +3434,20 @@
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="K59" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>01-08-01</v>
+        <v>01-08-00</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D60" s="4" t="str">
         <f>+VLOOKUP(E60,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3454,20 +3466,20 @@
         <v>16</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="K60" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>01-08-02</v>
+        <v>01-08-01</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D61" s="4" t="str">
         <f>+VLOOKUP(E61,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -3496,42 +3508,42 @@
         <v>01-08-02</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D62" s="4" t="str">
         <f>+VLOOKUP(E62,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>02-02</v>
+        <v>01-08</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K62" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>02-02-01</v>
+        <v>01-08-02</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D63" s="4" t="str">
         <f>+VLOOKUP(E63,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3540,30 +3552,30 @@
         <v>8</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>02-03</v>
+        <v>02-02</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K63" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>02-03-02</v>
+        <v>02-02-01</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D64" s="4" t="str">
         <f>+VLOOKUP(E64,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3572,30 +3584,30 @@
         <v>8</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>02-04</v>
+        <v>02-03</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="K64" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>02-04-03</v>
+        <v>02-03-02</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D65" s="4" t="str">
         <f>+VLOOKUP(E65,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3624,10 +3636,10 @@
         <v>02-04-03</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D66" s="4" t="str">
         <f>+VLOOKUP(E66,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3656,42 +3668,42 @@
         <v>02-04-03</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D67" s="4" t="str">
         <f>+VLOOKUP(E67,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>164</v>
+        <v>8</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G98" si="4">+D67&amp;"-"&amp;F67</f>
-        <v>06-09</v>
+        <f t="shared" si="2"/>
+        <v>02-04</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" ref="K67:K98" si="5">+G67&amp;"-"&amp;I67</f>
-        <v>06-09-00</v>
+        <f t="shared" si="3"/>
+        <v>02-04-03</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D68" s="4" t="str">
         <f>+VLOOKUP(E68,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3703,7 +3715,7 @@
         <v>164</v>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G68:G99" si="4">+D68&amp;"-"&amp;F68</f>
         <v>06-09</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -3716,14 +3728,14 @@
         <v>199</v>
       </c>
       <c r="K68" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K68:K99" si="5">+G68&amp;"-"&amp;I68</f>
         <v>06-09-00</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D69" s="4" t="str">
         <f>+VLOOKUP(E69,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3752,42 +3764,42 @@
         <v>06-09-00</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D70" s="4" t="str">
         <f>+VLOOKUP(E70,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="G70" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>02-05</v>
+        <v>06-09</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="K70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>02-05-04</v>
+        <v>06-09-00</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D71" s="4" t="str">
         <f>+VLOOKUP(E71,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3816,10 +3828,10 @@
         <v>02-05-04</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D72" s="4" t="str">
         <f>+VLOOKUP(E72,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3848,42 +3860,42 @@
         <v>02-05-04</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D73" s="4" t="str">
         <f>+VLOOKUP(E73,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+        <v>02</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G73" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>07-04</v>
+        <v>02-05</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="K73" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>07-04-00</v>
+        <v>02-05-04</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D74" s="4" t="str">
         <f>+VLOOKUP(E74,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3912,39 +3924,39 @@
         <v>07-04-00</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D75" s="4" t="str">
         <f>+VLOOKUP(E75,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G75" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>04-01</v>
+        <v>07-04</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K75" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-01-00</v>
+        <v>07-04-00</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.35">
@@ -3976,7 +3988,7 @@
         <v>04-01-00</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.35">
@@ -3998,17 +4010,17 @@
         <v>13</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="K77" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-01-01</v>
+        <v>04-01-00</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.35">
@@ -4030,17 +4042,17 @@
         <v>13</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K78" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-01-02</v>
+        <v>04-01-01</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="4:12" x14ac:dyDescent="0.35">
@@ -4062,84 +4074,84 @@
         <v>13</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="K79" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-01-00</v>
+        <v>04-01-02</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D80" s="4" t="str">
         <f>+VLOOKUP(E80,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>04</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="G80" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>06-10</v>
+        <v>04-01</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="K80" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>06-10-00</v>
+        <v>04-01-00</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D81" s="4" t="str">
         <f>+VLOOKUP(E81,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="G81" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>07-05</v>
+        <v>06-10</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="K81" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>07-05-00</v>
+        <v>06-10-00</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D82" s="4" t="str">
         <f>+VLOOKUP(E82,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4168,106 +4180,106 @@
         <v>07-05-00</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D83" s="4" t="str">
         <f>+VLOOKUP(E83,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G83" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>04-02</v>
+        <v>07-05</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="K83" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-02-00</v>
+        <v>07-05-00</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D84" s="4" t="str">
         <f>+VLOOKUP(E84,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>04</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="G84" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>06-11</v>
+        <v>04-02</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K84" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>06-11-00</v>
+        <v>04-02-00</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D85" s="4" t="str">
         <f>+VLOOKUP(E85,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
+        <v>06</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>175</v>
       </c>
       <c r="G85" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>01-11</v>
+        <v>06-11</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="K85" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>01-11-00</v>
+        <v>06-11-00</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D86" s="4" t="str">
         <f>+VLOOKUP(E86,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4286,20 +4298,20 @@
         <v>123</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="K86" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>01-11-01</v>
+        <v>01-11-00</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D87" s="4" t="str">
         <f>+VLOOKUP(E87,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4318,20 +4330,20 @@
         <v>123</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K87" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>01-11-02</v>
+        <v>01-11-01</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D88" s="4" t="str">
         <f>+VLOOKUP(E88,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4350,20 +4362,20 @@
         <v>123</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K88" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>01-11-01</v>
+        <v>01-11-02</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D89" s="4" t="str">
         <f>+VLOOKUP(E89,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4392,10 +4404,10 @@
         <v>01-11-01</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D90" s="4" t="str">
         <f>+VLOOKUP(E90,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4424,10 +4436,10 @@
         <v>01-11-01</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D91" s="4" t="str">
         <f>+VLOOKUP(E91,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4436,30 +4448,30 @@
         <v>3</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G91" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>01-12</v>
+        <v>01-11</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K91" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>01-12-00</v>
+        <v>01-11-01</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D92" s="4" t="str">
         <f>+VLOOKUP(E92,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -4488,42 +4500,42 @@
         <v>01-12-00</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D93" s="4" t="str">
         <f>+VLOOKUP(E93,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="G93" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>02-06</v>
+        <v>01-12</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="K93" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>02-06-05</v>
+        <v>01-12-00</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D94" s="4" t="str">
         <f>+VLOOKUP(E94,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4552,42 +4564,42 @@
         <v>02-06-05</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D95" s="4" t="str">
         <f>+VLOOKUP(E95,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>232</v>
+        <v>8</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G95" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>03-15</v>
+        <v>02-06</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="K95" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>03-15-00</v>
+        <v>02-06-05</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D96" s="4" t="str">
         <f>+VLOOKUP(E96,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4616,39 +4628,39 @@
         <v>03-15-00</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D97" s="4" t="str">
         <f>+VLOOKUP(E97,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="G97" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>04-04</v>
+        <v>03-15</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="K97" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>04-04-00</v>
+        <v>03-15-00</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.35">
@@ -4680,42 +4692,42 @@
         <v>04-04-00</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D99" s="4" t="str">
         <f>+VLOOKUP(E99,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G99" s="6" t="str">
-        <f t="shared" ref="G99:G130" si="6">+D99&amp;"-"&amp;F99</f>
-        <v>05-05</v>
+        <f t="shared" si="4"/>
+        <v>04-04</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="K99" s="3" t="str">
-        <f t="shared" ref="K99:K130" si="7">+G99&amp;"-"&amp;I99</f>
-        <v>05-05-00</v>
+        <f t="shared" si="5"/>
+        <v>04-04-00</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D100" s="4" t="str">
         <f>+VLOOKUP(E100,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4727,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="G100" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G100:G131" si="6">+D100&amp;"-"&amp;F100</f>
         <v>05-05</v>
       </c>
       <c r="H100" s="3" t="s">
@@ -4740,14 +4752,14 @@
         <v>217</v>
       </c>
       <c r="K100" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K100:K131" si="7">+G100&amp;"-"&amp;I100</f>
         <v>05-05-00</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D101" s="4" t="str">
         <f>+VLOOKUP(E101,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4776,10 +4788,10 @@
         <v>05-05-00</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D102" s="4" t="str">
         <f>+VLOOKUP(E102,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4798,20 +4810,20 @@
         <v>124</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K102" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-05-01</v>
+        <v>05-05-00</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D103" s="4" t="str">
         <f>+VLOOKUP(E103,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4830,20 +4842,20 @@
         <v>124</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K103" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-05-03</v>
+        <v>05-05-01</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D104" s="4" t="str">
         <f>+VLOOKUP(E104,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4852,43 +4864,43 @@
         <v>168</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G104" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>05-06</v>
+        <v>05-05</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="K104" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-06-00</v>
+        <v>05-05-03</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D105" s="4" t="str">
         <f>+VLOOKUP(E105,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>09</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>05</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>09-01</v>
+        <v>05-06</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>169</v>
@@ -4897,17 +4909,17 @@
         <v>109</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="K105" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>09-01-00</v>
+        <v>05-06-00</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D106" s="4" t="str">
         <f>+VLOOKUP(E106,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -4926,116 +4938,116 @@
         <v>169</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K106" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>09-01-01</v>
+        <v>09-01-00</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D107" s="4" t="str">
         <f>+VLOOKUP(E107,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>3</v>
+        <v>09</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="G107" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>01-13</v>
+        <v>09-01</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="K107" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>01-13-00</v>
+        <v>09-01-01</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="4:12" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D108" s="4" t="str">
         <f>+VLOOKUP(E108,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>02-07</v>
+        <v>01-13</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K108" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>02-07-06</v>
+        <v>01-13-00</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="4:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D109" s="4" t="str">
         <f>+VLOOKUP(E109,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>06-12</v>
+        <v>02-07</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K109" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>06-12-00</v>
+        <v>02-07-06</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D110" s="4" t="str">
         <f>+VLOOKUP(E110,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5064,43 +5076,43 @@
         <v>06-12-00</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="str">
         <f>+VLOOKUP(E111,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>05</v>
+        <v>06</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G111" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>05-07</v>
+        <v>06-12</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K111" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-07-00</v>
+        <v>06-12-00</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="D112" s="9" t="str">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D112" s="4" t="str">
         <f>+VLOOKUP(E112,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
       </c>
@@ -5108,30 +5120,30 @@
         <v>168</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G112" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>05-08</v>
+        <v>05-07</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K112" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-08-00</v>
+        <v>05-07-00</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D113" s="9" t="str">
         <f>+VLOOKUP(E113,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5160,10 +5172,10 @@
         <v>05-08-00</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="str">
         <f>+VLOOKUP(E114,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5192,42 +5204,42 @@
         <v>05-08-00</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D115" s="9" t="str">
         <f>+VLOOKUP(E115,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+        <v>05</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G115" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>07-06</v>
+        <v>05-08</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K115" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>07-06-00</v>
+        <v>05-08-00</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="str">
         <f>+VLOOKUP(E116,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5256,39 +5268,39 @@
         <v>07-06-00</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D117" s="9" t="str">
         <f>+VLOOKUP(E117,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>04-05</v>
+        <v>07-06</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="K117" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>04-05-00</v>
+        <v>07-06-00</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="4:12" x14ac:dyDescent="0.35">
@@ -5310,17 +5322,17 @@
         <v>15</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="K118" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>04-05-01</v>
+        <v>04-05-00</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="4:12" x14ac:dyDescent="0.35">
@@ -5342,17 +5354,17 @@
         <v>15</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="K119" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>04-05-00</v>
+        <v>04-05-01</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="4:12" x14ac:dyDescent="0.35">
@@ -5374,209 +5386,209 @@
         <v>15</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="K120" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>04-05-01</v>
+        <v>04-05-00</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D121" s="9" t="str">
         <f>+VLOOKUP(E121,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>05</v>
+        <v>04</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>05-09</v>
+        <v>04-05</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K121" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>05-09-00</v>
+        <v>04-05-01</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D122" s="9" t="str">
         <f>+VLOOKUP(E122,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+        <v>05</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>07-07</v>
+        <v>05-09</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="K122" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>07-07-00</v>
+        <v>05-09-00</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D123" s="9" t="str">
         <f>+VLOOKUP(E123,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>07</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="G123" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>06-13</v>
+        <v>07-07</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="K123" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>06-13-00</v>
+        <v>07-07-00</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D124" s="9" t="str">
         <f>+VLOOKUP(E124,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G124" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>03-16</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>222</v>
+        <v>06-13</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="K124" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>03-16-00</v>
+        <v>06-13-00</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="4:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D125" s="9" t="str">
         <f>+VLOOKUP(E125,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>02-08</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>20</v>
+        <v>03-16</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="K125" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>02-08-07</v>
+        <v>03-16-00</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D126" s="9" t="str">
         <f>+VLOOKUP(E126,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>04</v>
+        <v>02</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>04-03</v>
+        <v>02-08</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="K126" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>04-03-00</v>
+        <v>02-08-07</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="4:12" x14ac:dyDescent="0.35">
@@ -5608,170 +5620,170 @@
         <v>04-03-00</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D128" s="9" t="str">
         <f>+VLOOKUP(E128,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="G128" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>01-14</v>
+        <v>04-03</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="K128" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>01-14-00</v>
+        <v>04-03-00</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D129" s="9" t="str">
         <f>+VLOOKUP(E129,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>06-14</v>
+        <v>01-14</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="K129" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>06-14-00</v>
+        <v>01-14-00</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D130" s="9" t="str">
         <f>+VLOOKUP(E130,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>11</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>91</v>
+        <v>06</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="G130" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>11-01</v>
+        <v>06-14</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I130" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I130" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="K130" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>11-01-00</v>
+        <v>06-14-00</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D131" s="9" t="str">
         <f>+VLOOKUP(E131,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G162" si="8">+D131&amp;"-"&amp;F131</f>
-        <v>02-01</v>
+        <f t="shared" si="6"/>
+        <v>11-01</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="I131" s="6" t="s">
         <v>109</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>177</v>
       </c>
       <c r="K131" s="3" t="str">
-        <f t="shared" ref="K131:K154" si="9">+G131&amp;"-"&amp;I131</f>
-        <v>02-01-00</v>
+        <f t="shared" si="7"/>
+        <v>11-01-00</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D132" s="9" t="str">
         <f>+VLOOKUP(E132,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G132" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>05-04</v>
+        <f t="shared" ref="G132:G155" si="8">+D132&amp;"-"&amp;F132</f>
+        <v>02-01</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="I132" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>177</v>
       </c>
       <c r="K132" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>05-04-00</v>
+        <f t="shared" ref="K132:K155" si="9">+G132&amp;"-"&amp;I132</f>
+        <v>02-01-00</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D133" s="9" t="str">
         <f>+VLOOKUP(E133,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5789,7 +5801,7 @@
       <c r="H133" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="I133" s="6" t="s">
         <v>109</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -5800,23 +5812,23 @@
         <v>05-04-00</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D134" s="9" t="str">
         <f>+VLOOKUP(E134,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>10</v>
+        <v>05</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>10-07</v>
+        <v>05-04</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>177</v>
@@ -5829,26 +5841,26 @@
       </c>
       <c r="K134" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>10-07-00</v>
+        <v>05-04-00</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D135" s="9" t="str">
         <f>+VLOOKUP(E135,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>10</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>06-04</v>
+        <v>10-07</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>177</v>
@@ -5861,13 +5873,13 @@
       </c>
       <c r="K135" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>06-04-00</v>
+        <v>10-07-00</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D136" s="9" t="str">
         <f>+VLOOKUP(E136,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5896,10 +5908,10 @@
         <v>06-04-00</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D137" s="9" t="str">
         <f>+VLOOKUP(E137,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5928,23 +5940,23 @@
         <v>06-04-00</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D138" s="9" t="str">
         <f>+VLOOKUP(E138,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>07</v>
+        <v>06</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>07-02</v>
+        <v>06-04</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>177</v>
@@ -5957,75 +5969,75 @@
       </c>
       <c r="K138" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>07-02-00</v>
+        <v>06-04-00</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D139" s="9" t="str">
         <f>+VLOOKUP(E139,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>02</v>
+        <v>07</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>02-09</v>
+        <v>07-02</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I139" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="J139" s="3" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="K139" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>02-09-</v>
+        <v>07-02-00</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D140" s="9" t="str">
         <f>+VLOOKUP(E140,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>232</v>
+        <v>8</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>06-15</v>
+        <v>02-09</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="I140" s="3"/>
       <c r="J140" s="3" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="K140" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>06-15-00</v>
+        <v>02-09-</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="141" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D141" s="9" t="str">
         <f>+VLOOKUP(E141,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6034,62 +6046,62 @@
         <v>5</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G141" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>06-16</v>
+        <v>06-15</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="K141" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>06-16-00</v>
+        <v>06-15-00</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D142" s="9" t="str">
         <f>+VLOOKUP(E142,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>09</v>
+        <v>06</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="G142" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>09-02</v>
+        <v>06-16</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K142" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>09-02-00</v>
+        <v>06-16-00</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D143" s="9" t="str">
         <f>+VLOOKUP(E143,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6118,23 +6130,23 @@
         <v>09-02-00</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D144" s="9" t="str">
         <f>+VLOOKUP(E144,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>08</v>
+        <v>09</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>08-01</v>
+        <v>09-02</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>22</v>
@@ -6143,17 +6155,17 @@
         <v>109</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="K144" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-00</v>
+        <v>09-02-00</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D145" s="9" t="str">
         <f>+VLOOKUP(E145,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6172,20 +6184,20 @@
         <v>22</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K145" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-01</v>
+        <v>08-01-00</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D146" s="9" t="str">
         <f>+VLOOKUP(E146,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6204,20 +6216,20 @@
         <v>22</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K146" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-02</v>
+        <v>08-01-01</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D147" s="9" t="str">
         <f>+VLOOKUP(E147,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6236,20 +6248,20 @@
         <v>22</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="K147" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-03</v>
+        <v>08-01-02</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D148" s="9" t="str">
         <f>+VLOOKUP(E148,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6268,20 +6280,20 @@
         <v>22</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K148" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-04</v>
+        <v>08-01-03</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D149" s="9" t="str">
         <f>+VLOOKUP(E149,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6300,20 +6312,20 @@
         <v>22</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="K149" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-05</v>
+        <v>08-01-04</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D150" s="9" t="str">
         <f>+VLOOKUP(E150,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6329,23 +6341,23 @@
         <v>08-01</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>95</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="K150" s="3" t="str">
         <f t="shared" si="9"/>
         <v>08-01-05</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D151" s="9" t="str">
         <f>+VLOOKUP(E151,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6364,20 +6376,20 @@
         <v>147</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="K151" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>08-01-02</v>
+        <v>08-01-05</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D152" s="9" t="str">
         <f>+VLOOKUP(E152,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6406,42 +6418,42 @@
         <v>08-01-02</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D153" s="9" t="str">
         <f>+VLOOKUP(E153,Categoría[[Categoría]:[Codigo]],2,0)</f>
-        <v>01</v>
+        <v>08</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="G153" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>01-15</v>
+        <v>08-01</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="K153" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>01-15-00</v>
+        <v>08-01-02</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D154" s="9" t="str">
         <f>+VLOOKUP(E154,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>01</v>
@@ -6460,80 +6472,170 @@
         <v>225</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K154" s="3" t="str">
         <f t="shared" si="9"/>
+        <v>01-15-00</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D155" s="9" t="str">
+        <f>+VLOOKUP(E155,Categoría[[Categoría]:[Codigo]],2,0)</f>
+        <v>01</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G155" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>01-15</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K155" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>01-15-01</v>
       </c>
-      <c r="L154" s="3" t="s">
+      <c r="L155" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D156" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D157" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48 J36:J46 J50:J52">
-    <cfRule type="duplicateValues" dxfId="27" priority="133"/>
+  <conditionalFormatting sqref="J48 J36:J46 J51:J53">
+    <cfRule type="duplicateValues" dxfId="16" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J75">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+  <conditionalFormatting sqref="J70:J76">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H91">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90:J91">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J104 J106:J107">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  <conditionalFormatting sqref="H91:H92">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91:J92">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105 J107:J108">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L10">
-    <cfRule type="duplicateValues" dxfId="16" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H67 H69:H74">
-    <cfRule type="duplicateValues" dxfId="15" priority="228"/>
+  <conditionalFormatting sqref="H36:H68 H70:H75">
+    <cfRule type="duplicateValues" dxfId="4" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H96 H85:H89">
-    <cfRule type="duplicateValues" dxfId="14" priority="232"/>
+  <conditionalFormatting sqref="H93:H97 H86:H90">
+    <cfRule type="duplicateValues" dxfId="3" priority="232"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J96 J85:J89">
-    <cfRule type="duplicateValues" dxfId="13" priority="234"/>
+  <conditionalFormatting sqref="J93:J97 J86:J90">
+    <cfRule type="duplicateValues" dxfId="2" priority="234"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J105">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231729C5-31F1-44EB-B850-6B7C15F6574A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C37A77-3758-4196-B9D5-E0F3566893E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{414B5265-9344-4A73-9B4E-1EB725646290}"/>
   </bookViews>
@@ -868,6 +868,94 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1068,94 +1156,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1181,21 +1181,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L157" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="D2:L157" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="D2:L157" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Berries"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:L155">
     <sortCondition ref="H3:H155"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E28C3-EA76-4080-AF4E-19AE1D68A723}">
   <dimension ref="A2:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156:K156"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,7 +1592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="str">
         <f>+VLOOKUP(E16,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2075,7 +2081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="str">
         <f>+VLOOKUP(E17,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2107,7 +2113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="str">
         <f>+VLOOKUP(E18,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2139,7 +2145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="str">
         <f>+VLOOKUP(E19,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2171,7 +2177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D20" s="4" t="str">
         <f>+VLOOKUP(E20,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2203,7 +2209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="str">
         <f>+VLOOKUP(E21,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2235,7 +2241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D22" s="4" t="str">
         <f>+VLOOKUP(E22,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2267,7 +2273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="str">
         <f>+VLOOKUP(E23,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2299,7 +2305,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="str">
         <f>+VLOOKUP(E24,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2331,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="str">
         <f>+VLOOKUP(E25,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2363,7 +2369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="str">
         <f>+VLOOKUP(E26,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2395,7 +2401,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="str">
         <f>+VLOOKUP(E27,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2427,7 +2433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(E28,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2459,7 +2465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="str">
         <f>+VLOOKUP(E29,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2491,7 +2497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(E30,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2523,7 +2529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(E31,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2555,7 +2561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(E32,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2650,7 +2656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(E35,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2682,7 +2688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="str">
         <f>+VLOOKUP(E36,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2714,7 +2720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(E37,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2746,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(E38,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2778,7 +2784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(E39,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2810,7 +2816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(E40,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2842,7 +2848,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(E41,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2874,7 +2880,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(E42,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2938,7 +2944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(E44,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3034,7 +3040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D47" s="4" t="str">
         <f>+VLOOKUP(E47,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3066,7 +3072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D48" s="4" t="str">
         <f>+VLOOKUP(E48,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3098,7 +3104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(E49,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3130,7 +3136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D50" s="4" t="s">
         <v>97</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D51" s="4" t="str">
         <f>+VLOOKUP(E51,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3191,7 +3197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(E52,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3223,7 +3229,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(E53,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3351,7 +3357,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D57" s="4" t="str">
         <f>+VLOOKUP(E57,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3543,7 +3549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D63" s="4" t="str">
         <f>+VLOOKUP(E63,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3575,7 +3581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D64" s="4" t="str">
         <f>+VLOOKUP(E64,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3607,7 +3613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D65" s="4" t="str">
         <f>+VLOOKUP(E65,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3639,7 +3645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D66" s="4" t="str">
         <f>+VLOOKUP(E66,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3671,7 +3677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D67" s="4" t="str">
         <f>+VLOOKUP(E67,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3703,7 +3709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D68" s="4" t="str">
         <f>+VLOOKUP(E68,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3735,7 +3741,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D69" s="4" t="str">
         <f>+VLOOKUP(E69,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3767,7 +3773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D70" s="4" t="str">
         <f>+VLOOKUP(E70,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3799,7 +3805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D71" s="4" t="str">
         <f>+VLOOKUP(E71,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3831,7 +3837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D72" s="4" t="str">
         <f>+VLOOKUP(E72,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3863,7 +3869,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D73" s="4" t="str">
         <f>+VLOOKUP(E73,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3895,7 +3901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D74" s="4" t="str">
         <f>+VLOOKUP(E74,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3927,7 +3933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D75" s="4" t="str">
         <f>+VLOOKUP(E75,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3959,7 +3965,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D76" s="4" t="str">
         <f>+VLOOKUP(E76,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3991,7 +3997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D77" s="4" t="str">
         <f>+VLOOKUP(E77,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4023,7 +4029,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D78" s="4" t="str">
         <f>+VLOOKUP(E78,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4055,7 +4061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D79" s="4" t="str">
         <f>+VLOOKUP(E79,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4087,7 +4093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D80" s="4" t="str">
         <f>+VLOOKUP(E80,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4119,7 +4125,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D81" s="4" t="str">
         <f>+VLOOKUP(E81,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4151,7 +4157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D82" s="4" t="str">
         <f>+VLOOKUP(E82,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4183,7 +4189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D83" s="4" t="str">
         <f>+VLOOKUP(E83,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4215,7 +4221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D84" s="4" t="str">
         <f>+VLOOKUP(E84,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4247,7 +4253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D85" s="4" t="str">
         <f>+VLOOKUP(E85,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4535,7 +4541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D94" s="4" t="str">
         <f>+VLOOKUP(E94,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4567,7 +4573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D95" s="4" t="str">
         <f>+VLOOKUP(E95,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4599,7 +4605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D96" s="4" t="str">
         <f>+VLOOKUP(E96,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4631,7 +4637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D97" s="4" t="str">
         <f>+VLOOKUP(E97,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4663,7 +4669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D98" s="4" t="str">
         <f>+VLOOKUP(E98,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4695,7 +4701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D99" s="4" t="str">
         <f>+VLOOKUP(E99,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4727,7 +4733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D100" s="4" t="str">
         <f>+VLOOKUP(E100,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4759,7 +4765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D101" s="4" t="str">
         <f>+VLOOKUP(E101,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4791,7 +4797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D102" s="4" t="str">
         <f>+VLOOKUP(E102,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4823,7 +4829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D103" s="4" t="str">
         <f>+VLOOKUP(E103,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4855,7 +4861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D104" s="4" t="str">
         <f>+VLOOKUP(E104,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4887,7 +4893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D105" s="4" t="str">
         <f>+VLOOKUP(E105,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4919,7 +4925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D106" s="4" t="str">
         <f>+VLOOKUP(E106,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -4951,7 +4957,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D107" s="4" t="str">
         <f>+VLOOKUP(E107,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -5015,7 +5021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="4:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:12" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D109" s="4" t="str">
         <f>+VLOOKUP(E109,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5047,7 +5053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D110" s="4" t="str">
         <f>+VLOOKUP(E110,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5079,7 +5085,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="str">
         <f>+VLOOKUP(E111,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5111,7 +5117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D112" s="4" t="str">
         <f>+VLOOKUP(E112,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5143,7 +5149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D113" s="9" t="str">
         <f>+VLOOKUP(E113,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5175,7 +5181,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="str">
         <f>+VLOOKUP(E114,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5207,7 +5213,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D115" s="9" t="str">
         <f>+VLOOKUP(E115,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5239,7 +5245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="str">
         <f>+VLOOKUP(E116,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5271,7 +5277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D117" s="9" t="str">
         <f>+VLOOKUP(E117,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5303,7 +5309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D118" s="9" t="str">
         <f>+VLOOKUP(E118,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5335,7 +5341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D119" s="9" t="str">
         <f>+VLOOKUP(E119,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5367,7 +5373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D120" s="9" t="str">
         <f>+VLOOKUP(E120,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5399,7 +5405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D121" s="9" t="str">
         <f>+VLOOKUP(E121,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5431,7 +5437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D122" s="9" t="str">
         <f>+VLOOKUP(E122,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5463,7 +5469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D123" s="9" t="str">
         <f>+VLOOKUP(E123,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5495,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D124" s="9" t="str">
         <f>+VLOOKUP(E124,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5527,7 +5533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="4:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:12" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="D125" s="9" t="str">
         <f>+VLOOKUP(E125,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -5559,7 +5565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D126" s="9" t="str">
         <f>+VLOOKUP(E126,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5591,7 +5597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D127" s="9" t="str">
         <f>+VLOOKUP(E127,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5623,7 +5629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D128" s="9" t="str">
         <f>+VLOOKUP(E128,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5687,7 +5693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D130" s="9" t="str">
         <f>+VLOOKUP(E130,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5719,7 +5725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D131" s="9" t="str">
         <f>+VLOOKUP(E131,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>11</v>
@@ -5751,7 +5757,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D132" s="9" t="str">
         <f>+VLOOKUP(E132,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5783,7 +5789,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D133" s="9" t="str">
         <f>+VLOOKUP(E133,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5815,7 +5821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D134" s="9" t="str">
         <f>+VLOOKUP(E134,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5847,7 +5853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D135" s="9" t="str">
         <f>+VLOOKUP(E135,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>10</v>
@@ -5879,7 +5885,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D136" s="9" t="str">
         <f>+VLOOKUP(E136,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5911,7 +5917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D137" s="9" t="str">
         <f>+VLOOKUP(E137,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5943,7 +5949,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D138" s="9" t="str">
         <f>+VLOOKUP(E138,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5975,7 +5981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D139" s="9" t="str">
         <f>+VLOOKUP(E139,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -6007,7 +6013,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D140" s="9" t="str">
         <f>+VLOOKUP(E140,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -6037,7 +6043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D141" s="9" t="str">
         <f>+VLOOKUP(E141,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6069,7 +6075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D142" s="9" t="str">
         <f>+VLOOKUP(E142,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6101,7 +6107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D143" s="9" t="str">
         <f>+VLOOKUP(E143,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6133,7 +6139,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D144" s="9" t="str">
         <f>+VLOOKUP(E144,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6165,7 +6171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D145" s="9" t="str">
         <f>+VLOOKUP(E145,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6197,7 +6203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D146" s="9" t="str">
         <f>+VLOOKUP(E146,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6229,7 +6235,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D147" s="9" t="str">
         <f>+VLOOKUP(E147,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6261,7 +6267,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D148" s="9" t="str">
         <f>+VLOOKUP(E148,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6293,7 +6299,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D149" s="9" t="str">
         <f>+VLOOKUP(E149,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6325,7 +6331,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D150" s="9" t="str">
         <f>+VLOOKUP(E150,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6357,7 +6363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D151" s="9" t="str">
         <f>+VLOOKUP(E151,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6389,7 +6395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D152" s="9" t="str">
         <f>+VLOOKUP(E152,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6421,7 +6427,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D153" s="9" t="str">
         <f>+VLOOKUP(E153,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6546,7 +6552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="D157" s="3" t="s">
         <v>94</v>
       </c>
@@ -6578,64 +6584,64 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48 J36:J46 J51:J53">
-    <cfRule type="duplicateValues" dxfId="16" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:J76">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91:H92">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:J92">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105 J107:J108">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L10">
-    <cfRule type="duplicateValues" dxfId="5" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H68 H70:H75">
-    <cfRule type="duplicateValues" dxfId="4" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:H97 H86:H90">
-    <cfRule type="duplicateValues" dxfId="3" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J97 J86:J90">
-    <cfRule type="duplicateValues" dxfId="2" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Categoría-Especie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C37A77-3758-4196-B9D5-E0F3566893E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19530776-A6CA-4A58-9E7C-D4B900538158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{414B5265-9344-4A73-9B4E-1EB725646290}"/>
   </bookViews>
@@ -1182,26 +1182,20 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{319CB9FB-8662-4560-ADBF-9329CFD214CA}" name="Categoria" displayName="Categoria" ref="D2:L157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="D2:L157" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Berries"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D2:L157" xr:uid="{BB3B9989-901F-4CA5-9494-ED49B5FFD9B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:L155">
     <sortCondition ref="H3:H155"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8DFE1CE2-EC48-4864-9A0E-9B47B7E2832F}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0D09BC05-14B7-49DB-8338-4093D94377F3}" name="Categoría" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{06956247-AEB0-4BD7-A3C0-44C8053856B2}" name="Idesp" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4EEFDE64-E397-4853-B1FA-760321DBBE16}" name="CodCatEsp" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F7EE826A-5DA3-465F-A4E5-745905659CFA}" name="Especie DI" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0CD61B18-63F0-40D3-BC05-8816A3E3AA06}" name="IDDetalle" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00FBA167-A425-4814-A705-6C33C6449899}" name="Especie DI - Detalle" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{6A14B239-6016-4BFF-B6A8-3A7E7BD226D8}" name="CodEspDet" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{1BE8F740-484A-4991-97EA-6630C90F1861}" name="Especie BD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1506,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E28C3-EA76-4080-AF4E-19AE1D68A723}">
   <dimension ref="A2:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,7 +1586,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1940,7 +1934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -2049,7 +2043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="str">
         <f>+VLOOKUP(E16,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2081,7 +2075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="str">
         <f>+VLOOKUP(E17,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2113,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="str">
         <f>+VLOOKUP(E18,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2145,7 +2139,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="str">
         <f>+VLOOKUP(E19,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -2177,7 +2171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D20" s="4" t="str">
         <f>+VLOOKUP(E20,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2209,7 +2203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="str">
         <f>+VLOOKUP(E21,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2241,7 +2235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D22" s="4" t="str">
         <f>+VLOOKUP(E22,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2273,7 +2267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D23" s="4" t="str">
         <f>+VLOOKUP(E23,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2305,7 +2299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="str">
         <f>+VLOOKUP(E24,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2337,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="str">
         <f>+VLOOKUP(E25,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2369,7 +2363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="str">
         <f>+VLOOKUP(E26,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2401,7 +2395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="str">
         <f>+VLOOKUP(E27,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2433,7 +2427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(E28,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2465,7 +2459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="str">
         <f>+VLOOKUP(E29,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2497,7 +2491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(E30,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2529,7 +2523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(E31,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2561,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(E32,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -2656,7 +2650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(E35,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2688,7 +2682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="str">
         <f>+VLOOKUP(E36,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -2720,7 +2714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(E37,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2752,7 +2746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(E38,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2784,7 +2778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(E39,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2816,7 +2810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(E40,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2848,7 +2842,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(E41,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2880,7 +2874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(E42,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -2944,7 +2938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(E44,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3040,7 +3034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D47" s="4" t="str">
         <f>+VLOOKUP(E47,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3072,7 +3066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D48" s="4" t="str">
         <f>+VLOOKUP(E48,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3104,7 +3098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(E49,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3136,7 +3130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D50" s="4" t="s">
         <v>97</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D51" s="4" t="str">
         <f>+VLOOKUP(E51,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3197,7 +3191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(E52,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3229,7 +3223,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(E53,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -3357,7 +3351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D57" s="4" t="str">
         <f>+VLOOKUP(E57,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3549,7 +3543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D63" s="4" t="str">
         <f>+VLOOKUP(E63,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3581,7 +3575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D64" s="4" t="str">
         <f>+VLOOKUP(E64,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3613,7 +3607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D65" s="4" t="str">
         <f>+VLOOKUP(E65,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3645,7 +3639,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D66" s="4" t="str">
         <f>+VLOOKUP(E66,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3677,7 +3671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D67" s="4" t="str">
         <f>+VLOOKUP(E67,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3709,7 +3703,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D68" s="4" t="str">
         <f>+VLOOKUP(E68,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3741,7 +3735,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D69" s="4" t="str">
         <f>+VLOOKUP(E69,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3773,7 +3767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D70" s="4" t="str">
         <f>+VLOOKUP(E70,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -3805,7 +3799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D71" s="4" t="str">
         <f>+VLOOKUP(E71,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3837,7 +3831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D72" s="4" t="str">
         <f>+VLOOKUP(E72,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3869,7 +3863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D73" s="4" t="str">
         <f>+VLOOKUP(E73,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -3901,7 +3895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D74" s="4" t="str">
         <f>+VLOOKUP(E74,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3933,7 +3927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D75" s="4" t="str">
         <f>+VLOOKUP(E75,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -3965,7 +3959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D76" s="4" t="str">
         <f>+VLOOKUP(E76,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -3997,7 +3991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D77" s="4" t="str">
         <f>+VLOOKUP(E77,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4029,7 +4023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D78" s="4" t="str">
         <f>+VLOOKUP(E78,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4061,7 +4055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D79" s="4" t="str">
         <f>+VLOOKUP(E79,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4093,7 +4087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D80" s="4" t="str">
         <f>+VLOOKUP(E80,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4125,7 +4119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D81" s="4" t="str">
         <f>+VLOOKUP(E81,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4157,7 +4151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D82" s="4" t="str">
         <f>+VLOOKUP(E82,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4189,7 +4183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D83" s="4" t="str">
         <f>+VLOOKUP(E83,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -4221,7 +4215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D84" s="4" t="str">
         <f>+VLOOKUP(E84,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4253,7 +4247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D85" s="4" t="str">
         <f>+VLOOKUP(E85,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -4541,7 +4535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D94" s="4" t="str">
         <f>+VLOOKUP(E94,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4573,7 +4567,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D95" s="4" t="str">
         <f>+VLOOKUP(E95,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -4605,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D96" s="4" t="str">
         <f>+VLOOKUP(E96,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4637,7 +4631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D97" s="4" t="str">
         <f>+VLOOKUP(E97,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -4669,7 +4663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D98" s="4" t="str">
         <f>+VLOOKUP(E98,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4701,7 +4695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D99" s="4" t="str">
         <f>+VLOOKUP(E99,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -4733,7 +4727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D100" s="4" t="str">
         <f>+VLOOKUP(E100,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4765,7 +4759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D101" s="4" t="str">
         <f>+VLOOKUP(E101,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4797,7 +4791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D102" s="4" t="str">
         <f>+VLOOKUP(E102,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4829,7 +4823,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D103" s="4" t="str">
         <f>+VLOOKUP(E103,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4861,7 +4855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D104" s="4" t="str">
         <f>+VLOOKUP(E104,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4893,7 +4887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D105" s="4" t="str">
         <f>+VLOOKUP(E105,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -4925,7 +4919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D106" s="4" t="str">
         <f>+VLOOKUP(E106,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -4957,7 +4951,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D107" s="4" t="str">
         <f>+VLOOKUP(E107,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -5021,7 +5015,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="4:12" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D109" s="4" t="str">
         <f>+VLOOKUP(E109,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5053,7 +5047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D110" s="4" t="str">
         <f>+VLOOKUP(E110,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5085,7 +5079,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D111" s="4" t="str">
         <f>+VLOOKUP(E111,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5117,7 +5111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D112" s="4" t="str">
         <f>+VLOOKUP(E112,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5149,7 +5143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D113" s="9" t="str">
         <f>+VLOOKUP(E113,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5181,7 +5175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="str">
         <f>+VLOOKUP(E114,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5213,7 +5207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D115" s="9" t="str">
         <f>+VLOOKUP(E115,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5245,7 +5239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="str">
         <f>+VLOOKUP(E116,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5277,7 +5271,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D117" s="9" t="str">
         <f>+VLOOKUP(E117,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5309,7 +5303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D118" s="9" t="str">
         <f>+VLOOKUP(E118,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5341,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D119" s="9" t="str">
         <f>+VLOOKUP(E119,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5373,7 +5367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D120" s="9" t="str">
         <f>+VLOOKUP(E120,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5405,7 +5399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D121" s="9" t="str">
         <f>+VLOOKUP(E121,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5437,7 +5431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D122" s="9" t="str">
         <f>+VLOOKUP(E122,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5469,7 +5463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D123" s="9" t="str">
         <f>+VLOOKUP(E123,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -5501,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D124" s="9" t="str">
         <f>+VLOOKUP(E124,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5533,7 +5527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="4:12" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D125" s="9" t="str">
         <f>+VLOOKUP(E125,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>03</v>
@@ -5565,7 +5559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D126" s="9" t="str">
         <f>+VLOOKUP(E126,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5597,7 +5591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D127" s="9" t="str">
         <f>+VLOOKUP(E127,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5629,7 +5623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D128" s="9" t="str">
         <f>+VLOOKUP(E128,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>04</v>
@@ -5693,7 +5687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D130" s="9" t="str">
         <f>+VLOOKUP(E130,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5725,7 +5719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D131" s="9" t="str">
         <f>+VLOOKUP(E131,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>11</v>
@@ -5757,7 +5751,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D132" s="9" t="str">
         <f>+VLOOKUP(E132,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -5789,7 +5783,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D133" s="9" t="str">
         <f>+VLOOKUP(E133,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5821,7 +5815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D134" s="9" t="str">
         <f>+VLOOKUP(E134,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>05</v>
@@ -5853,7 +5847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D135" s="9" t="str">
         <f>+VLOOKUP(E135,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>10</v>
@@ -5885,7 +5879,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D136" s="9" t="str">
         <f>+VLOOKUP(E136,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5917,7 +5911,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D137" s="9" t="str">
         <f>+VLOOKUP(E137,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5949,7 +5943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D138" s="9" t="str">
         <f>+VLOOKUP(E138,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -5981,7 +5975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D139" s="9" t="str">
         <f>+VLOOKUP(E139,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>07</v>
@@ -6013,7 +6007,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D140" s="9" t="str">
         <f>+VLOOKUP(E140,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>02</v>
@@ -6043,7 +6037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D141" s="9" t="str">
         <f>+VLOOKUP(E141,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6075,7 +6069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D142" s="9" t="str">
         <f>+VLOOKUP(E142,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>06</v>
@@ -6107,7 +6101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D143" s="9" t="str">
         <f>+VLOOKUP(E143,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6139,7 +6133,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D144" s="9" t="str">
         <f>+VLOOKUP(E144,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>09</v>
@@ -6171,7 +6165,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D145" s="9" t="str">
         <f>+VLOOKUP(E145,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6203,7 +6197,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D146" s="9" t="str">
         <f>+VLOOKUP(E146,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6235,7 +6229,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D147" s="9" t="str">
         <f>+VLOOKUP(E147,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6267,7 +6261,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D148" s="9" t="str">
         <f>+VLOOKUP(E148,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6299,7 +6293,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D149" s="9" t="str">
         <f>+VLOOKUP(E149,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6331,7 +6325,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D150" s="9" t="str">
         <f>+VLOOKUP(E150,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6363,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D151" s="9" t="str">
         <f>+VLOOKUP(E151,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6395,7 +6389,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D152" s="9" t="str">
         <f>+VLOOKUP(E152,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6427,7 +6421,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D153" s="9" t="str">
         <f>+VLOOKUP(E153,Categoría[[Categoría]:[Codigo]],2,0)</f>
         <v>08</v>
@@ -6552,7 +6546,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D157" s="3" t="s">
         <v>94</v>
       </c>
